--- a/Ik ben snelheid/Ik ben snelheid.xlsx
+++ b/Ik ben snelheid/Ik ben snelheid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Ik ben snelheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE22AE3C-0EEA-4E16-AEE8-0957FDDACC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66457BBF-F1C2-4CD6-8684-15D85FB2D8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -362,10 +362,10 @@
     <t>Deck is 4101 mm from WL</t>
   </si>
   <si>
-    <t>Deck is 7101 mm from WL</t>
+    <t>Deck is 10101 mm from WL</t>
   </si>
   <si>
-    <t>Deck is 10101 mm from WL</t>
+    <t>Deck is 8101 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -19577,7 +19577,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -19589,11 +19589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6888704D-986B-484E-BE7B-77D722A1A08C}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19632,7 +19635,7 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>172.761</v>
+        <v>166.35900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19669,7 +19672,7 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -19677,7 +19680,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -19685,7 +19688,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -19706,7 +19709,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>8.9689999999999994</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -19722,13 +19725,13 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>148.00299999999999</v>
+        <v>145.797</v>
       </c>
       <c r="C18">
         <v>-6.39</v>
       </c>
       <c r="D18">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -19741,7 +19744,7 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>13849.255999999999</v>
+        <v>10752.514999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -19757,13 +19760,13 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>88.706000000000003</v>
+        <v>90.619</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.3849999999999998</v>
+        <v>3.774</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -19785,7 +19788,7 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>0.44719999999999999</v>
+        <v>0.42430000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -19793,7 +19796,7 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>0.46089999999999998</v>
+        <v>0.4541</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -19806,7 +19809,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>3233.2910000000002</v>
+        <v>2956.0129999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -19814,13 +19817,13 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>80.700999999999993</v>
+        <v>83.495000000000005</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -19828,13 +19831,13 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>122721.27800000001</v>
+        <v>102004.139</v>
       </c>
       <c r="C29" s="1">
-        <v>5769200</v>
+        <v>4865100</v>
       </c>
       <c r="D29" s="1">
-        <v>5891900</v>
+        <v>4967100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -19842,7 +19845,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>4111.1639999999998</v>
+        <v>3628.9450000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -19858,7 +19861,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>126.334</v>
+        <v>101.78700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -19871,7 +19874,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>1486.796</v>
+        <v>985.41399999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -19879,13 +19882,13 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>153.321</v>
+        <v>153.173</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.2679999999999998</v>
+        <v>3.2759999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -19901,7 +19904,7 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -19909,7 +19912,7 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>312.72899999999998</v>
+        <v>279.38900000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -19917,13 +19920,13 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>153.73400000000001</v>
+        <v>153.49299999999999</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>7.0490000000000004</v>
+        <v>5.3579999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -19931,13 +19934,13 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>3234.5990000000002</v>
+        <v>2397.1930000000002</v>
       </c>
       <c r="C40">
-        <v>24873.862000000001</v>
+        <v>21576.663</v>
       </c>
       <c r="D40">
-        <v>28108.460999999999</v>
+        <v>23973.856</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -19963,7 +19966,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3.9670000000000001</v>
+        <v>10.069000000000001</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -19971,167 +19974,167 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12.194000000000001</v>
+        <v>17.991</v>
       </c>
       <c r="B45">
-        <v>16.788</v>
+        <v>14.374000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20.420999999999999</v>
+        <v>25.913</v>
       </c>
       <c r="B46">
-        <v>37.627000000000002</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28.648</v>
+        <v>33.835000000000001</v>
       </c>
       <c r="B47">
-        <v>58.527000000000001</v>
+        <v>49.930999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>36.874000000000002</v>
+        <v>41.756999999999998</v>
       </c>
       <c r="B48">
-        <v>78.08</v>
+        <v>66.224000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>45.100999999999999</v>
+        <v>49.677999999999997</v>
       </c>
       <c r="B49">
-        <v>95.257999999999996</v>
+        <v>80.162000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>53.328000000000003</v>
+        <v>57.6</v>
       </c>
       <c r="B50">
-        <v>109.20399999999999</v>
+        <v>91.025999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>61.555</v>
+        <v>65.522000000000006</v>
       </c>
       <c r="B51">
-        <v>119.241</v>
+        <v>98.305999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>69.781000000000006</v>
+        <v>73.444000000000003</v>
       </c>
       <c r="B52">
-        <v>124.95</v>
+        <v>101.78700000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>78.007999999999996</v>
+        <v>81.366</v>
       </c>
       <c r="B53">
-        <v>126.334</v>
+        <v>101.699</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>86.234999999999999</v>
+        <v>89.287999999999997</v>
       </c>
       <c r="B54">
-        <v>124.042</v>
+        <v>98.914000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>94.460999999999999</v>
+        <v>97.209000000000003</v>
       </c>
       <c r="B55">
-        <v>119.529</v>
+        <v>94.745999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>102.688</v>
+        <v>105.131</v>
       </c>
       <c r="B56">
-        <v>113.651</v>
+        <v>89.564999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>110.91500000000001</v>
+        <v>113.053</v>
       </c>
       <c r="B57">
-        <v>106.496</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>119.142</v>
+        <v>120.97499999999999</v>
       </c>
       <c r="B58">
-        <v>98.231999999999999</v>
+        <v>76.756</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>127.36799999999999</v>
+        <v>128.89699999999999</v>
       </c>
       <c r="B59">
-        <v>89.06</v>
+        <v>69.521000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>135.595</v>
+        <v>136.81899999999999</v>
       </c>
       <c r="B60">
-        <v>79.069000000000003</v>
+        <v>61.798999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>143.822</v>
+        <v>144.74100000000001</v>
       </c>
       <c r="B61">
-        <v>68.040999999999997</v>
+        <v>53.276000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>152.04900000000001</v>
+        <v>152.66200000000001</v>
       </c>
       <c r="B62">
-        <v>55.368000000000002</v>
+        <v>43.408999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>160.27500000000001</v>
+        <v>160.584</v>
       </c>
       <c r="B63">
-        <v>40.268000000000001</v>
+        <v>31.593</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>168.50200000000001</v>
+        <v>168.506</v>
       </c>
       <c r="B64">
-        <v>21.635999999999999</v>
+        <v>16.922999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>176.72900000000001</v>
+        <v>176.428</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -20360,36 +20363,36 @@
         <v>140.63300000000001</v>
       </c>
       <c r="B94">
-        <v>73.227000000000004</v>
+        <v>48.823999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>149.661</v>
+        <v>149.52799999999999</v>
       </c>
       <c r="B95">
-        <v>59.878999999999998</v>
+        <v>40.204000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>158.68799999999999</v>
+        <v>158.42400000000001</v>
       </c>
       <c r="B96">
-        <v>43.87</v>
+        <v>29.664999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>167.71600000000001</v>
+        <v>167.31899999999999</v>
       </c>
       <c r="B97">
-        <v>23.898</v>
+        <v>16.236000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>176.74299999999999</v>
+        <v>176.214</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -21255,7 +21258,7 @@
         <v>73</v>
       </c>
       <c r="B129">
-        <v>6.9989999999999997</v>
+        <v>5.9989999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -21463,19 +21466,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C152">
-        <v>0.237429374100355</v>
+        <v>0.24195519924537501</v>
       </c>
       <c r="D152">
-        <v>567254.73395884398</v>
+        <v>520432.40341673099</v>
       </c>
       <c r="E152">
-        <v>358617.27349391801</v>
+        <v>319287.66303068801</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>128952.95023345199</v>
+        <v>128947.025705129</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -21484,16 +21487,16 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>79684.510231474298</v>
+        <v>72197.714680912803</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>9.5043078176365495E-2</v>
+        <v>8.1998297640694801E-2</v>
       </c>
       <c r="M152">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -21558,19 +21561,19 @@
         <v>3.0866666666666598</v>
       </c>
       <c r="C156">
-        <v>7.4977697084322698E-2</v>
+        <v>7.6406905024855504E-2</v>
       </c>
       <c r="D156">
-        <v>49296.102832647397</v>
+        <v>44027.531204696599</v>
       </c>
       <c r="E156">
-        <v>41349.522491361902</v>
+        <v>36827.460567528702</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0.20258967029187999</v>
+        <v>0.29853602418227099</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -21579,16 +21582,16 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>7946.3777516151704</v>
+        <v>7199.7721011436597</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>9.9917326134131804E-2</v>
+        <v>8.76953415488336E-2</v>
       </c>
       <c r="M156">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -21599,19 +21602,19 @@
         <v>3.13811111111111</v>
       </c>
       <c r="C157">
-        <v>7.6227325369061405E-2</v>
+        <v>7.7680353441936398E-2</v>
       </c>
       <c r="D157">
-        <v>50860.938400208797</v>
+        <v>45425.184438460099</v>
       </c>
       <c r="E157">
-        <v>42647.198967241602</v>
+        <v>37983.018147587303</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0.27509581161601399</v>
+        <v>0.401849662892098</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -21620,16 +21623,16 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>8213.4643371555703</v>
+        <v>7441.7644412098798</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>9.9838881823719694E-2</v>
+        <v>8.7603813411164896E-2</v>
       </c>
       <c r="M157">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -21640,19 +21643,19 @@
         <v>3.1895555555555499</v>
       </c>
       <c r="C158">
-        <v>7.7476953653800099E-2</v>
+        <v>7.8953801859017403E-2</v>
       </c>
       <c r="D158">
-        <v>52448.9399399553</v>
+        <v>46843.540356637801</v>
       </c>
       <c r="E158">
-        <v>43963.604299986597</v>
+        <v>39155.247693098601</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.37006296624648199</v>
+        <v>0.53600887361063698</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -21661,16 +21664,16 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>8484.9655770024201</v>
+        <v>7687.7566546656199</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>9.9761981903019298E-2</v>
+        <v>8.7514082318148501E-2</v>
       </c>
       <c r="M158">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -21681,19 +21684,19 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="C159">
-        <v>7.8726581938538806E-2</v>
+        <v>8.0227250276098297E-2</v>
       </c>
       <c r="D159">
-        <v>54060.0777896203</v>
+        <v>48282.575000192599</v>
       </c>
       <c r="E159">
-        <v>45298.702940247502</v>
+        <v>40344.1174904871</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0.49337821705867901</v>
+        <v>0.70876819464579499</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -21702,16 +21705,16 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>8760.8814711557206</v>
+        <v>7937.7487415108799</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>9.9686571469386503E-2</v>
+        <v>8.7426084491906406E-2</v>
       </c>
       <c r="M159">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -21722,19 +21725,19 @@
         <v>3.2924444444444401</v>
       </c>
       <c r="C160">
-        <v>7.99762102232775E-2</v>
+        <v>8.1500698693179205E-2</v>
       </c>
       <c r="D160">
-        <v>55694.324213920903</v>
+        <v>49742.266584899196</v>
       </c>
       <c r="E160">
-        <v>46652.460005563698</v>
+        <v>41549.596421294103</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.65218874169888197</v>
+        <v>0.92946185939801795</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -21743,16 +21746,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>9041.2120196154792</v>
+        <v>8191.7407017456699</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>9.96125984109556E-2</v>
+        <v>8.7339759392521102E-2</v>
       </c>
       <c r="M160">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -21763,19 +21766,19 @@
         <v>3.34388888888888</v>
       </c>
       <c r="C161">
-        <v>8.1225838508016193E-2</v>
+        <v>8.2774147110260196E-2</v>
       </c>
       <c r="D161">
-        <v>57351.653588510802</v>
+        <v>51222.595724053397</v>
       </c>
       <c r="E161">
-        <v>48024.8412574744</v>
+        <v>42771.653941748402</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.85510865475626596</v>
+        <v>1.2092469350089301</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -21784,16 +21787,16 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>9325.9572223816904</v>
+        <v>8449.7325353699907</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>9.9540013223544804E-2</v>
+        <v>8.7255049505809298E-2</v>
       </c>
       <c r="M161">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -21804,19 +21807,19 @@
         <v>3.3953333333333302</v>
       </c>
       <c r="C162">
-        <v>8.2475466792754901E-2</v>
+        <v>8.4047595527341104E-2</v>
       </c>
       <c r="D162">
-        <v>59032.042607632</v>
+        <v>52723.545676076603</v>
       </c>
       <c r="E162">
-        <v>49415.813079758598</v>
+        <v>44010.260063345297</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>1.1124484190778099</v>
+        <v>1.5613703474867999</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -21825,16 +21828,16 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>9615.1170794543505</v>
+        <v>8711.7242423838306</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>9.9468768842193495E-2</v>
+        <v>8.7171900148040798E-2</v>
       </c>
       <c r="M162">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -21845,19 +21848,19 @@
         <v>3.4467777777777702</v>
       </c>
       <c r="C163">
-        <v>8.3725095077493705E-2</v>
+        <v>8.5321043944421998E-2</v>
       </c>
       <c r="D163">
-        <v>60735.470516243899</v>
+        <v>54245.102617489902</v>
       </c>
       <c r="E163">
-        <v>50825.342457733597</v>
+        <v>45265.385334369203</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>1.4364676768074001</v>
+        <v>2.0014603335550301</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -21866,16 +21869,16 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>9908.6915908334704</v>
+        <v>8977.7158227871896</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>9.9398820485958897E-2</v>
+        <v>8.7090259286016505E-2</v>
       </c>
       <c r="M163">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -21886,19 +21889,19 @@
         <v>3.4982222222222199</v>
       </c>
       <c r="C164">
-        <v>8.4974723362232399E-2</v>
+        <v>8.6594492361502906E-2</v>
       </c>
       <c r="D164">
-        <v>62461.9193672654</v>
+        <v>55787.255941559401</v>
       </c>
       <c r="E164">
-        <v>52253.396958543097</v>
+        <v>46537.000822300899</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>1.8416522032120499</v>
+        <v>2.54784267835488</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -21907,16 +21910,16 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>10206.680756518999</v>
+        <v>9247.7072765800804</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>9.9330125514747805E-2</v>
+        <v>8.7010077371085903E-2</v>
       </c>
       <c r="M164">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -21927,19 +21930,19 @@
         <v>3.5496666666666599</v>
       </c>
       <c r="C165">
-        <v>8.6224351646971106E-2</v>
+        <v>8.7867940778583897E-2</v>
       </c>
       <c r="D165">
-        <v>64211.374304413097</v>
+        <v>57349.998582725602</v>
       </c>
       <c r="E165">
-        <v>53699.944712375996</v>
+        <v>47825.078097054698</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>2.3450155260018501</v>
+        <v>3.2218819084467598</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -21948,16 +21951,16 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>10509.084576511001</v>
+        <v>9521.6986037624902</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>9.9262643297087005E-2</v>
+        <v>8.6931307185836401E-2</v>
       </c>
       <c r="M165">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -21968,19 +21971,19 @@
         <v>3.60111111111111</v>
       </c>
       <c r="C166">
-        <v>8.74739799317098E-2</v>
+        <v>8.9141389195664805E-2</v>
       </c>
       <c r="D166">
-        <v>65983.823870948094</v>
+        <v>58933.3273667424</v>
       </c>
       <c r="E166">
-        <v>55164.954394556597</v>
+        <v>49129.589214993903</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>2.9664255819438798</v>
+        <v>4.0483474140667504</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -21989,16 +21992,16 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>10815.9030508095</v>
+        <v>9799.6898043344208</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>9.9196335087851403E-2</v>
+        <v>8.6853903702319699E-2</v>
       </c>
       <c r="M166">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -22009,19 +22012,19 @@
         <v>3.65255555555555</v>
       </c>
       <c r="C167">
-        <v>8.8723608216448493E-2</v>
+        <v>9.0414837612745699E-2</v>
       </c>
       <c r="D167">
-        <v>67779.260344473601</v>
+        <v>60537.243386250899</v>
       </c>
       <c r="E167">
-        <v>56648.3952084556</v>
+        <v>50450.506703678897</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>3.7289566035157899</v>
+        <v>5.0558042760703801</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -22030,16 +22033,16 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>11127.1361794144</v>
+        <v>10081.6808782958</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>9.9131163915069098E-2</v>
+        <v>8.6777823950792199E-2</v>
       </c>
       <c r="M167">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -22050,19 +22053,19 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="C168">
-        <v>8.9973236501187201E-2</v>
+        <v>9.1688286029826593E-2</v>
       </c>
       <c r="D168">
-        <v>69597.680097742006</v>
+        <v>62161.752401324702</v>
       </c>
       <c r="E168">
-        <v>58150.236869172601</v>
+        <v>51787.803547303702</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>4.6592662436018299</v>
+        <v>6.2770283741426898</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -22071,16 +22074,16 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>11442.783962325801</v>
+        <v>10367.671825646799</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>9.9067094475010997E-2</v>
+        <v>8.6703026898057006E-2</v>
       </c>
       <c r="M168">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -22091,19 +22094,19 @@
         <v>3.7554444444444401</v>
       </c>
       <c r="C169">
-        <v>9.1222864785925895E-2</v>
+        <v>9.2961734446907598E-2</v>
       </c>
       <c r="D169">
-        <v>71439.083985246398</v>
+        <v>63806.865264323998</v>
       </c>
       <c r="E169">
-        <v>59670.4495879444</v>
+        <v>53141.453172780297</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>5.7879977582681397</v>
+        <v>7.7494451562639703</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -22112,16 +22115,16 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>11762.8463995436</v>
+        <v>10657.6626463873</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>9.9004093034853802E-2</v>
+        <v>8.6629473334579099E-2</v>
       </c>
       <c r="M169">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -22132,19 +22135,19 @@
         <v>3.8068888888888801</v>
       </c>
       <c r="C170">
-        <v>9.2472493070664602E-2</v>
+        <v>9.4235182863988506E-2</v>
       </c>
       <c r="D170">
-        <v>73303.477755184998</v>
+        <v>65472.598368209503</v>
       </c>
       <c r="E170">
-        <v>61209.004057238097</v>
+        <v>54511.429436434599</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>7.1502068788843998</v>
+        <v>9.5155912575374497</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -22153,16 +22156,16 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>12087.3234910679</v>
+        <v>10951.6533405174</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>9.8942127342272507E-2</v>
+        <v>8.6557125769632107E-2</v>
       </c>
       <c r="M170">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -22173,19 +22176,19 @@
         <v>3.8583333333333298</v>
       </c>
       <c r="C171">
-        <v>9.3722121355403407E-2</v>
+        <v>9.55086312810694E-2</v>
       </c>
       <c r="D171">
-        <v>75190.872486205393</v>
+        <v>67158.974117286096</v>
       </c>
       <c r="E171">
-        <v>62765.871436488997</v>
+        <v>55897.706611277601</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>8.78581281762016</v>
+        <v>11.623597971559001</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -22194,16 +22197,16 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>12416.215236898701</v>
+        <v>11249.6439080369</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>9.8881166541383597E-2</v>
+        <v>8.6485948333803395E-2</v>
       </c>
       <c r="M171">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -22214,19 +22217,19 @@
         <v>3.9097777777777698</v>
       </c>
       <c r="C172">
-        <v>9.49717496401421E-2</v>
+        <v>9.6782079698150295E-2</v>
       </c>
       <c r="D172">
-        <v>77101.285048150996</v>
+        <v>68866.021419168697</v>
       </c>
       <c r="E172">
-        <v>64341.0233384483</v>
+        <v>57300.2593748211</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>10.740072666844499</v>
+        <v>14.1276954015778</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -22235,16 +22238,16 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>12749.521637035799</v>
+        <v>11551.634348946</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>9.8821181094513599E-2</v>
+        <v>8.6415906688251706E-2</v>
       </c>
       <c r="M172">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -22255,19 +22258,19 @@
         <v>3.96122222222222</v>
       </c>
       <c r="C173">
-        <v>9.6221377924880794E-2</v>
+        <v>9.80555281152313E-2</v>
       </c>
       <c r="D173">
-        <v>79034.738585860105</v>
+        <v>70593.776196604595</v>
       </c>
       <c r="E173">
-        <v>65934.431816105294</v>
+        <v>58719.062797406397</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>13.0640782752495</v>
+        <v>17.088735953550302</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -22276,16 +22279,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>13087.2426914795</v>
+        <v>11857.6246632446</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>9.8762142709319004E-2</v>
+        <v>8.6346967940165498E-2</v>
       </c>
       <c r="M173">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -22296,19 +22299,19 @@
         <v>4.0126666666666599</v>
       </c>
       <c r="C174">
-        <v>9.7471006209619501E-2</v>
+        <v>9.9328976532312194E-2</v>
       </c>
       <c r="D174">
-        <v>80991.2630248981</v>
+        <v>72342.281917631903</v>
       </c>
       <c r="E174">
-        <v>67546.069350154998</v>
+        <v>60154.092331018699</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>15.8152745134757</v>
+        <v>20.574735680393498</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -22317,16 +22320,16 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>13429.3784002296</v>
+        <v>12167.614850932699</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>9.8704024270826002E-2</v>
+        <v>8.6279100563925501E-2</v>
       </c>
       <c r="M174">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -22337,19 +22340,19 @@
         <v>4.0641111111111101</v>
       </c>
       <c r="C175">
-        <v>9.8720634494358195E-2</v>
+        <v>0.100602424949393</v>
       </c>
       <c r="D175">
-        <v>82970.895597945695</v>
+        <v>74111.590142418805</v>
       </c>
       <c r="E175">
-        <v>69175.908836978197</v>
+        <v>61605.323798560799</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>19.057997681315499</v>
+        <v>24.6614318475707</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -22358,16 +22361,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>13775.9287632861</v>
+        <v>12481.6049120104</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>9.8646799778000796E-2</v>
+        <v>8.6212274327517505E-2</v>
       </c>
       <c r="M175">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -22378,19 +22381,19 @@
         <v>4.1155555555555496</v>
       </c>
       <c r="C176">
-        <v>9.9970262779096902E-2</v>
+        <v>0.101875873366474</v>
       </c>
       <c r="D176">
-        <v>84973.681390418395</v>
+        <v>75901.7610850044</v>
       </c>
       <c r="E176">
-        <v>70823.923577110501</v>
+        <v>63072.733383561099</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>22.864032658668702</v>
+        <v>29.4328549656402</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -22399,16 +22402,16 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>14126.893780649099</v>
+        <v>12799.594846477599</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>9.8590444284493498E-2</v>
+        <v>8.6146460223784097E-2</v>
       </c>
       <c r="M176">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -22419,19 +22422,19 @@
         <v>4.16699999999999</v>
       </c>
       <c r="C177">
-        <v>0.101219891063835</v>
+        <v>0.103149321783555</v>
       </c>
       <c r="D177">
-        <v>86999.673903754796</v>
+        <v>77712.864188055202</v>
       </c>
       <c r="E177">
-        <v>72490.087264171598</v>
+        <v>64556.297620294601</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>27.313187264568501</v>
+        <v>34.981913426353003</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -22440,16 +22443,16 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>14482.273452318601</v>
+        <v>13121.5846543343</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>9.8534933843233793E-2</v>
+        <v>8.6081630406141196E-2</v>
       </c>
       <c r="M177">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -22460,19 +22463,19 @@
         <v>4.2184444444444402</v>
       </c>
       <c r="C178">
-        <v>0.102469519348574</v>
+        <v>0.10442277020063501</v>
       </c>
       <c r="D178">
-        <v>89048.935634691399</v>
+        <v>79544.978708659502</v>
       </c>
       <c r="E178">
-        <v>74174.373974233007</v>
+        <v>66055.993384293106</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>32.493882163808202</v>
+        <v>41.410988785816002</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -22481,16 +22484,16 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>14842.0677782945</v>
+        <v>13447.574335580501</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>9.8480245454583198E-2</v>
+        <v>8.6017758128418095E-2</v>
       </c>
       <c r="M178">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -22501,19 +22504,19 @@
         <v>4.2698888888888797</v>
       </c>
       <c r="C179">
-        <v>0.103719147633313</v>
+        <v>0.105696218617716</v>
       </c>
       <c r="D179">
-        <v>91121.538668726498</v>
+        <v>81398.194313104395</v>
       </c>
       <c r="E179">
-        <v>75876.758155599804</v>
+        <v>67571.797883226594</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>38.503754549775699</v>
+        <v>48.832539661483104</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -22522,16 +22525,16 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>15206.2767585769</v>
+        <v>13777.563890216299</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>9.8426357017774496E-2</v>
+        <v>8.5954817688508905E-2</v>
       </c>
       <c r="M179">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -22542,19 +22545,19 @@
         <v>4.3213333333333299</v>
       </c>
       <c r="C180">
-        <v>0.104968775918051</v>
+        <v>0.106969667034797</v>
       </c>
       <c r="D180">
-        <v>93217.565285888602</v>
+        <v>83272.611678527406</v>
       </c>
       <c r="E180">
-        <v>77597.2146189872</v>
+        <v>69103.688648136405</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>45.450273735642</v>
+        <v>57.369712149353902</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -22563,16 +22566,16 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>15574.900393165701</v>
+        <v>14111.5533182415</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <v>9.8373247285394497E-2</v>
+        <v>8.5892784375552006E-2</v>
       </c>
       <c r="M180">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -22583,19 +22586,19 @@
         <v>4.3727777777777703</v>
       </c>
       <c r="C181">
-        <v>0.10621840420279</v>
+        <v>0.10824311545187799</v>
       </c>
       <c r="D181">
-        <v>95337.108576836501</v>
+        <v>85168.343099281905</v>
       </c>
       <c r="E181">
-        <v>79335.718528071098</v>
+        <v>70651.643525001797</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>53.4513667044207</v>
+        <v>67.156954623664504</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -22604,16 +22607,16 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>15947.938682061</v>
+        <v>14449.5426196563</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>9.8320895820684207E-2</v>
+        <v>8.5831634420377098E-2</v>
       </c>
       <c r="M181">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -22624,19 +22627,19 @@
         <v>4.4242222222222196</v>
       </c>
       <c r="C182">
-        <v>0.10746803248752899</v>
+        <v>0.109516563868959</v>
       </c>
       <c r="D182">
-        <v>97480.2730672584</v>
+        <v>87085.513095838396</v>
       </c>
       <c r="E182">
-        <v>81092.245390393902</v>
+        <v>72215.640666624502</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>62.636051601813499</v>
+        <v>78.3406347532448</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -22645,16 +22648,16 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>16325.3916252627</v>
+        <v>14791.5317944607</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>9.8269282957451104E-2</v>
+        <v>8.5771344948981296E-2</v>
       </c>
       <c r="M182">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -22665,19 +22668,19 @@
         <v>4.47566666666666</v>
       </c>
       <c r="C183">
-        <v>0.10871766077226699</v>
+        <v>0.11079001228604</v>
       </c>
       <c r="D183">
-        <v>99647.175348484699</v>
+        <v>89024.259024025596</v>
       </c>
       <c r="E183">
-        <v>82866.771048609604</v>
+        <v>73795.658524814906</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>73.145077104196005</v>
+        <v>91.079656556148393</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -22686,16 +22689,16 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>16707.259222770801</v>
+        <v>15137.5208426545</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>9.8218389762406905E-2</v>
+        <v>8.5711893938816702E-2</v>
       </c>
       <c r="M183">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -22706,19 +22709,19 @@
         <v>4.5271111111111102</v>
       </c>
       <c r="C184">
-        <v>0.10996728905700601</v>
+        <v>0.112063460703121</v>
       </c>
       <c r="D184">
-        <v>101837.94471219199</v>
+        <v>90984.731682420796</v>
       </c>
       <c r="E184">
-        <v>84659.271672049799</v>
+        <v>75391.675842866302</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>85.131565557399895</v>
+        <v>105.546075316535</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -22727,16 +22730,16 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>17093.541474585501</v>
+        <v>15487.509764237901</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>9.8168197999755499E-2</v>
+        <v>8.5653260177689303E-2</v>
       </c>
       <c r="M184">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -22747,19 +22750,19 @@
         <v>4.5785555555555497</v>
       </c>
       <c r="C185">
-        <v>0.11121691734174501</v>
+        <v>0.113336909120202</v>
       </c>
       <c r="D185">
-        <v>104052.72378706301</v>
+        <v>92967.095915716796</v>
       </c>
       <c r="E185">
-        <v>86469.723748596807</v>
+        <v>77003.671648301606</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>98.761657759824004</v>
+        <v>121.925708204396</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -22768,16 +22771,16 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>17484.2383807066</v>
+        <v>15841.498559210801</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>9.81186900978748E-2</v>
+        <v>8.5595423225085093E-2</v>
       </c>
       <c r="M185">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -22788,19 +22791,19 @@
         <v>4.63</v>
       </c>
       <c r="C186">
-        <v>0.112466545626484</v>
+        <v>0.11461035753728301</v>
       </c>
       <c r="D186">
-        <v>106291.669175238</v>
+        <v>94971.531211923793</v>
       </c>
       <c r="E186">
-        <v>88298.104076849195</v>
+        <v>78631.625245881805</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>114.215157255417</v>
+        <v>140.418738468767</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -22809,16 +22812,16 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>17879.3499411341</v>
+        <v>16199.4872275732</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
       <c r="L186">
-        <v>9.8069849117944793E-2</v>
+        <v>8.5538363375754406E-2</v>
       </c>
       <c r="M186">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -22829,19 +22832,19 @@
         <v>4.6814444444444403</v>
       </c>
       <c r="C187">
-        <v>0.113716173911222</v>
+        <v>0.115883805954364</v>
       </c>
       <c r="D187">
-        <v>108554.95208644</v>
+        <v>96998.232291304899</v>
       </c>
       <c r="E187">
-        <v>90144.389758564706</v>
+        <v>80275.516210862101</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>131.686172007632</v>
+        <v>161.240311117602</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -22850,16 +22853,16 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>18278.8761558681</v>
+        <v>16561.475769325101</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>9.8021658724390101E-2</v>
+        <v>8.5482061625399494E-2</v>
       </c>
       <c r="M187">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -22870,19 +22873,19 @@
         <v>4.7328888888888798</v>
       </c>
       <c r="C188">
-        <v>0.114965802195961</v>
+        <v>0.117157254371445</v>
       </c>
       <c r="D188">
-        <v>110842.75896762199</v>
+        <v>99047.409685004197</v>
       </c>
       <c r="E188">
-        <v>92008.558191369506</v>
+        <v>81935.324382485895</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>151.383751343955</v>
+        <v>184.62111805168601</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -22891,16 +22894,16 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>18682.817024908501</v>
+        <v>16927.4641844666</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>9.7974103157011105E-2</v>
+        <v>8.5426499638321995E-2</v>
       </c>
       <c r="M188">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -22911,19 +22914,19 @@
         <v>4.78433333333333</v>
       </c>
       <c r="C189">
-        <v>0.1162154304807</v>
+        <v>0.11843070278852599</v>
       </c>
       <c r="D189">
-        <v>113155.292126067</v>
+        <v>101119.29030138601</v>
       </c>
       <c r="E189">
-        <v>93890.587061721104</v>
+        <v>83611.029857704198</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>173.53251609126301</v>
+        <v>210.807970684623</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -22932,16 +22935,16 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>19091.172548255399</v>
+        <v>17297.4524729976</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>9.7927167204690399E-2</v>
+        <v>8.5371659716898099E-2</v>
       </c>
       <c r="M189">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -22952,19 +22955,19 @@
         <v>4.8357777777777704</v>
       </c>
       <c r="C190">
-        <v>0.117465058765438</v>
+        <v>0.119704151205607</v>
       </c>
       <c r="D190">
-        <v>115492.770343885</v>
+        <v>103214.117978184</v>
       </c>
       <c r="E190">
-        <v>95790.454338112002</v>
+        <v>85302.612985111205</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>198.37327986429401</v>
+        <v>240.064358155235</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -22973,16 +22976,16 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>19503.942725908801</v>
+        <v>17671.440634918101</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>9.7880836180571806E-2</v>
+        <v>8.5317524772759903E-2</v>
       </c>
       <c r="M190">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -22993,19 +22996,19 @@
         <v>4.8872222222222197</v>
       </c>
       <c r="C191">
-        <v>0.118714687050177</v>
+        <v>0.120977599622687</v>
       </c>
       <c r="D191">
-        <v>117855.429481896</v>
+        <v>105332.15401863601</v>
       </c>
       <c r="E191">
-        <v>97708.138264506095</v>
+        <v>87010.054359086294</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>226.16365952207599</v>
+        <v>272.67098932146502</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -23014,16 +23017,16 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>19921.127557868502</v>
+        <v>18049.428670228201</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>9.7835095898610794E-2</v>
+        <v>8.5264078299570403E-2</v>
       </c>
       <c r="M191">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -23034,19 +23037,19 @@
         <v>4.9386666666666601</v>
       </c>
       <c r="C192">
-        <v>0.119964315334916</v>
+        <v>0.122251048039768</v>
       </c>
       <c r="D192">
-        <v>120243.523070998</v>
+        <v>107473.67770987601</v>
       </c>
       <c r="E192">
-        <v>99643.617353994399</v>
+        <v>88733.334814133297</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>257.17867286930698</v>
+        <v>308.92631681506401</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -23055,16 +23058,16 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>20342.727044134801</v>
+        <v>18431.416578927699</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>9.7789932651410796E-2</v>
+        <v>8.52113043472882E-2</v>
       </c>
       <c r="M192">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -23075,19 +23078,19 @@
         <v>4.9901111111111103</v>
       </c>
       <c r="C193">
-        <v>0.121213943619655</v>
+        <v>0.123524496456849</v>
       </c>
       <c r="D193">
-        <v>122657.322889121</v>
+        <v>109638.98682195701</v>
       </c>
       <c r="E193">
-        <v>101596.87038266299</v>
+        <v>90472.435419407906</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>291.71132175054498</v>
+        <v>349.14704153298499</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -23096,16 +23099,16 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>20768.741184707502</v>
+        <v>18817.404361016801</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>9.7745333189259598E-2</v>
+        <v>8.5159187497826097E-2</v>
       </c>
       <c r="M193">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -23116,19 +23119,19 @@
         <v>5.0415555555555498</v>
       </c>
       <c r="C194">
-        <v>0.122463571904393</v>
+        <v>0.12479794487393001</v>
       </c>
       <c r="D194">
-        <v>125097.11952201401</v>
+        <v>111828.398085964</v>
       </c>
       <c r="E194">
-        <v>103567.876383664</v>
+        <v>92227.337473425505</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>330.073158763729</v>
+        <v>393.668596043413</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -23137,16 +23140,16 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>21199.169979586699</v>
+        <v>19207.3920164954</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>9.7701284700290894E-2</v>
+        <v>8.51077128420136E-2</v>
       </c>
       <c r="M194">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -23157,19 +23160,19 @@
         <v>5.093</v>
       </c>
       <c r="C195">
-        <v>0.123713200189132</v>
+        <v>0.126071393291011</v>
       </c>
       <c r="D195">
-        <v>127563.222906152</v>
+        <v>114042.247649796</v>
       </c>
       <c r="E195">
-        <v>105556.614641475</v>
+        <v>93998.022498942199</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>372.594835904977</v>
+        <v>442.84560549074303</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -23178,16 +23181,16 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>21634.013428772301</v>
+        <v>19601.379545363601</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>9.7657774791698002E-2</v>
+        <v>8.5056865957782196E-2</v>
       </c>
       <c r="M195">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -23198,19 +23201,19 @@
         <v>5.1444444444444404</v>
       </c>
       <c r="C196">
-        <v>0.124962828473871</v>
+        <v>0.12734484170809199</v>
       </c>
       <c r="D196">
-        <v>130055.96285216601</v>
+        <v>116280.891510314</v>
       </c>
       <c r="E196">
-        <v>107563.064686353</v>
+        <v>95784.4722379999</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>419.62663354804101</v>
+        <v>497.052324693721</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -23219,16 +23222,16 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>22073.271532264302</v>
+        <v>19999.366947621202</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
       <c r="L196">
-        <v>9.7614791471936205E-2</v>
+        <v>8.5006632889496003E-2</v>
       </c>
       <c r="M196">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -23239,19 +23242,19 @@
         <v>5.1958888888888799</v>
       </c>
       <c r="C197">
-        <v>0.12621245675860901</v>
+        <v>0.12861829012517301</v>
       </c>
       <c r="D197">
-        <v>132575.689547277</v>
+        <v>118544.705920643</v>
       </c>
       <c r="E197">
-        <v>109587.206288956</v>
+        <v>97586.668647131199</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>471.53896825816201</v>
+        <v>556.68305024333597</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -23260,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>22516.944290062798</v>
+        <v>20401.354223268401</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>9.7572323133849795E-2</v>
+        <v>8.4957000128356996E-2</v>
       </c>
       <c r="M197">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -23280,19 +23283,19 @@
         <v>5.2473333333333301</v>
       </c>
       <c r="C198">
-        <v>0.12746208504334799</v>
+        <v>0.129891738542254</v>
       </c>
       <c r="D198">
-        <v>135122.774035346</v>
+        <v>120834.087771541</v>
       </c>
       <c r="E198">
-        <v>111629.019455138</v>
+        <v>99404.593892714998</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>528.72287804057805</v>
+        <v>622.15250652119403</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -23301,16 +23304,16 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>22965.031702167798</v>
+        <v>20807.341372305102</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>9.7530358538669606E-2</v>
+        <v>8.4907954593818502E-2</v>
       </c>
       <c r="M198">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -23321,19 +23324,19 @@
         <v>5.2987777777777696</v>
       </c>
       <c r="C199">
-        <v>0.12871171332808701</v>
+        <v>0.13116518695933499</v>
       </c>
       <c r="D199">
-        <v>137697.60867322001</v>
+        <v>123149.454945883</v>
       </c>
       <c r="E199">
-        <v>113688.484420913</v>
+        <v>101238.23034647699</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>591.59048372778398</v>
+        <v>693.89620467418695</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -23342,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>23417.5337685792</v>
+        <v>21217.328394731401</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199">
-        <v>9.7488886800825597E-2</v>
+        <v>8.4859483615947306E-2</v>
       </c>
       <c r="M199">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -23362,19 +23365,19 @@
         <v>5.3502222222222198</v>
       </c>
       <c r="C200">
-        <v>0.12996134161282599</v>
+        <v>0.13243863537641601</v>
       </c>
       <c r="D200">
-        <v>140300.607562177</v>
+        <v>125491.246645377</v>
       </c>
       <c r="E200">
-        <v>115765.581647564</v>
+        <v>103087.56058113401</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>660.575425315909</v>
+        <v>772.37077369618896</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -23383,16 +23386,16 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>23874.450489297102</v>
+        <v>21631.3152905471</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>9.7447897373528006E-2</v>
+        <v>8.4811574918674498E-2</v>
       </c>
       <c r="M200">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -23403,19 +23406,19 @@
         <v>5.4016666666666602</v>
       </c>
       <c r="C201">
-        <v>0.13121096989756401</v>
+        <v>0.133712083793497</v>
       </c>
       <c r="D201">
-        <v>142932.20695340299</v>
+        <v>127859.923688797</v>
       </c>
       <c r="E201">
-        <v>117860.29181691199</v>
+        <v>104952.567366163</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>736.133272168605</v>
+        <v>858.05426288144497</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -23424,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>24335.781864321401</v>
+        <v>22049.302059752401</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>9.74073800350687E-2</v>
+        <v>8.4764216603885195E-2</v>
       </c>
       <c r="M201">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -23444,19 +23447,19 @@
         <v>5.4531111111111104</v>
       </c>
       <c r="C202">
-        <v>0.13246059818230299</v>
+        <v>0.13498553221057799</v>
       </c>
       <c r="D202">
-        <v>145592.86562649399</v>
+        <v>130255.968781085</v>
       </c>
       <c r="E202">
-        <v>119972.595826726</v>
+        <v>106833.233663711</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>818.74190611544702</v>
+        <v>951.44641502596096</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -23465,16 +23468,16 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>24801.527893652201</v>
+        <v>22471.288702347199</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>9.73673248758022E-2</v>
+        <v>8.4717397136295405E-2</v>
       </c>
       <c r="M202">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -23485,19 +23488,19 @@
         <v>5.5045555555555499</v>
       </c>
       <c r="C203">
-        <v>0.133710226467042</v>
+        <v>0.13625898062765901</v>
       </c>
       <c r="D203">
-        <v>148283.06524013699</v>
+        <v>132679.88675281301</v>
       </c>
       <c r="E203">
-        <v>122102.474786267</v>
+        <v>108729.542624617</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>908.90187658044601</v>
+        <v>1053.06890986384</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -23506,16 +23509,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>25271.688577289398</v>
+        <v>22897.275218331601</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>9.7327722285765694E-2</v>
+        <v>8.4671105329070601E-2</v>
       </c>
       <c r="M203">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -23526,19 +23529,19 @@
         <v>5.556</v>
       </c>
       <c r="C204">
-        <v>0.13495985475177999</v>
+        <v>0.13753242904474</v>
       </c>
       <c r="D204">
-        <v>151003.31065418801</v>
+        <v>135132.20476960301</v>
       </c>
       <c r="E204">
-        <v>124249.91001197</v>
+        <v>110641.477584559</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>1007.13672698395</v>
+        <v>1163.4655773377699</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -23547,16 +23550,16 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>25746.263915233099</v>
+        <v>23327.261607705401</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>9.7288562942900905E-2</v>
+        <v>8.4625330330143606E-2</v>
       </c>
       <c r="M204">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -23567,19 +23570,19 @@
         <v>5.6074444444444396</v>
       </c>
       <c r="C205">
-        <v>0.136209483036519</v>
+        <v>0.13880587746181999</v>
       </c>
       <c r="D205">
-        <v>153754.13022250801</v>
+        <v>137613.472511206</v>
       </c>
       <c r="E205">
-        <v>126414.883023255</v>
+        <v>112569.022060316</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>1113.99329176941</v>
+        <v>1283.2025804206901</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -23588,16 +23591,16 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>26225.2539074833</v>
+        <v>23761.2478704688</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>9.7249837801843597E-2</v>
+        <v>8.4580061609191196E-2</v>
       </c>
       <c r="M205">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -23608,19 +23611,19 @@
         <v>5.65888888888888</v>
       </c>
       <c r="C206">
-        <v>0.13745911132125799</v>
+        <v>0.14007932587890101</v>
       </c>
       <c r="D206">
-        <v>156536.07605601</v>
+        <v>140124.26232007999</v>
       </c>
       <c r="E206">
-        <v>128597.37553845299</v>
+        <v>114512.15974613201</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>1230.0419635174001</v>
+        <v>1412.86856732563</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -23629,16 +23632,16 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>26708.658554039801</v>
+        <v>24199.2340066217</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
       <c r="L206">
-        <v>9.7211538083248394E-2</v>
+        <v>8.4535288945232004E-2</v>
       </c>
       <c r="M206">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -23649,19 +23652,19 @@
         <v>5.7103333333333302</v>
       </c>
       <c r="C207">
-        <v>0.138708739605997</v>
+        <v>0.141352774295982</v>
       </c>
       <c r="D207">
-        <v>159349.72425548499</v>
+        <v>142665.16931940601</v>
       </c>
       <c r="E207">
-        <v>130797.369470859</v>
+        <v>116470.87451019599</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>1355.8769297235201</v>
+        <v>1553.07479304598</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -23670,16 +23673,16 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>27196.4778549029</v>
+        <v>24641.220016164101</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207">
-        <v>9.7173655263618694E-2</v>
+        <v>8.4491002414810196E-2</v>
       </c>
       <c r="M207">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -23690,19 +23693,19 @@
         <v>5.7617777777777697</v>
       </c>
       <c r="C208">
-        <v>0.13995836789073501</v>
+        <v>0.14262622271306299</v>
       </c>
       <c r="D208">
-        <v>162195.67511389501</v>
+        <v>145236.81150053299</v>
       </c>
       <c r="E208">
-        <v>133014.84692489301</v>
+        <v>118445.150391214</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1492.11637892965</v>
+        <v>1704.4552102238199</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -23711,16 +23714,16 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>27688.7118100724</v>
+        <v>25087.205899096101</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>9.7136181065613003E-2</v>
+        <v>8.4447192380733796E-2</v>
       </c>
       <c r="M208">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -23731,19 +23734,19 @@
         <v>5.8132222222222198</v>
       </c>
       <c r="C209">
-        <v>0.141207996175474</v>
+        <v>0.14389967113014401</v>
       </c>
       <c r="D209">
-        <v>165074.55328791501</v>
+        <v>147839.82977982599</v>
       </c>
       <c r="E209">
-        <v>135249.79019237499</v>
+        <v>120434.971595083</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>1639.4026759913099</v>
+        <v>1867.6665293255701</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -23752,16 +23755,16 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>28185.360419548299</v>
+        <v>25537.191655417599</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>9.7099107448802402E-2</v>
+        <v>8.4403849481334906E-2</v>
       </c>
       <c r="M209">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -23772,19 +23775,19 @@
         <v>5.8646666666666603</v>
       </c>
       <c r="C210">
-        <v>0.14245762446021301</v>
+        <v>0.145173119547225</v>
       </c>
       <c r="D210">
-        <v>167987.00793854301</v>
+        <v>150474.888024824</v>
       </c>
       <c r="E210">
-        <v>137502.18174889899</v>
+        <v>122440.32249166199</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>1798.40250631397</v>
+        <v>2043.38824803283</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -23793,16 +23796,16 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>28686.4236833307</v>
+        <v>25991.1772851286</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>9.7062426600852902E-2</v>
+        <v>8.4360964620224702E-2</v>
       </c>
       <c r="M210">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -23813,19 +23816,19 @@
         <v>5.9161111111111104</v>
       </c>
       <c r="C211">
-        <v>0.143707252744951</v>
+        <v>0.146446567964306</v>
       </c>
       <c r="D211">
-        <v>170933.712840619</v>
+        <v>153142.673049606</v>
       </c>
       <c r="E211">
-        <v>139772.004250311</v>
+        <v>124461.187611626</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>1969.80698888861</v>
+        <v>2232.32264975106</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -23834,16 +23837,16 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>29191.901601419599</v>
+        <v>26449.1627882291</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>9.7026130929110901E-2</v>
+        <v>8.4318528956515704E-2</v>
       </c>
       <c r="M211">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -23854,19 +23857,19 @@
         <v>5.96755555555555</v>
       </c>
       <c r="C212">
-        <v>0.14495688102969001</v>
+        <v>0.14772001638138699</v>
       </c>
       <c r="D212">
-        <v>173915.36646104301</v>
+        <v>155843.894579532</v>
       </c>
       <c r="E212">
-        <v>142059.240529292</v>
+        <v>126497.551643413</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>2154.3317579363002</v>
+        <v>2435.1947713995401</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -23875,16 +23878,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>29701.794173814898</v>
+        <v>26911.148164719201</v>
       </c>
       <c r="K212">
         <v>0</v>
       </c>
       <c r="L212">
-        <v>9.6990213052569496E-2</v>
+        <v>8.4276533895486505E-2</v>
       </c>
       <c r="M212">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -23895,19 +23898,19 @@
         <v>6.0190000000000001</v>
       </c>
       <c r="C213">
-        <v>0.146206509314429</v>
+        <v>0.14899346479846801</v>
       </c>
       <c r="D213">
-        <v>176932.69200558</v>
+        <v>158579.285186211</v>
       </c>
       <c r="E213">
-        <v>144363.87359202199</v>
+        <v>128549.399430253</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>2352.7170130414202</v>
+        <v>2652.7523413593699</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -23916,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>30216.1014005166</v>
+        <v>27377.133414598698</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
       <c r="L213">
-        <v>9.6954665794194705E-2</v>
+        <v>8.4234971079664003E-2</v>
       </c>
       <c r="M213">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -23936,19 +23939,19 @@
         <v>6.0704444444444396</v>
       </c>
       <c r="C214">
-        <v>0.14745613759916801</v>
+        <v>0.150266913215549</v>
       </c>
       <c r="D214">
-        <v>179986.43743443399</v>
+        <v>161349.600194745</v>
       </c>
       <c r="E214">
-        <v>146685.88661494601</v>
+        <v>130616.715967279</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>2565.72753796285</v>
+        <v>2885.76568959828</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -23957,16 +23960,16 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>30734.823281524899</v>
+        <v>27847.118537867798</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
       <c r="L214">
-        <v>9.6919482173593599E-2</v>
+        <v>8.4193832380303799E-2</v>
       </c>
       <c r="M214">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -23977,19 +23980,19 @@
         <v>6.1218888888888801</v>
       </c>
       <c r="C215">
-        <v>0.14870576588390599</v>
+        <v>0.15154036163262999</v>
       </c>
       <c r="D215">
-        <v>183077.37544743199</v>
+        <v>164155.61756638001</v>
       </c>
       <c r="E215">
-        <v>149025.26294162299</v>
+        <v>132699.48639871701</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>2794.1526889698098</v>
+        <v>3135.0276331364598</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -23998,16 +24001,16 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>31257.959816839499</v>
+        <v>28321.103534526501</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>9.6884655400005695E-2</v>
+        <v>8.4153109889244404E-2</v>
       </c>
       <c r="M215">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -24018,19 +24021,19 @@
         <v>6.1733333333333302</v>
       </c>
       <c r="C216">
-        <v>0.14995539416864501</v>
+        <v>0.15281381004971101</v>
       </c>
       <c r="D216">
-        <v>186206.303440583</v>
+        <v>166998.137760023</v>
       </c>
       <c r="E216">
-        <v>151381.986079656</v>
+        <v>134797.69601514499</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>3038.8063544667998</v>
+        <v>3401.3533403039</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -24039,16 +24042,16 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>31785.511006460601</v>
+        <v>28799.088404574599</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
       <c r="L216">
-        <v>9.6850178865600503E-2</v>
+        <v>8.4112795911118199E-2</v>
       </c>
       <c r="M216">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -24059,19 +24062,19 @@
         <v>6.2247777777777697</v>
       </c>
       <c r="C217">
-        <v>0.15120502245338399</v>
+        <v>0.154087258466792</v>
       </c>
       <c r="D217">
-        <v>189374.04343655301</v>
+        <v>169877.98357446099</v>
       </c>
       <c r="E217">
-        <v>153756.03969771299</v>
+        <v>136911.33025083499</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>3300.5268884522002</v>
+        <v>3685.58017561321</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -24080,16 +24083,16 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>32317.476850388201</v>
+        <v>29281.073148012299</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>9.6816046139066594E-2</v>
+        <v>8.4072882955900305E-2</v>
       </c>
       <c r="M217">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -24100,19 +24103,19 @@
         <v>6.2762222222222199</v>
       </c>
       <c r="C218">
-        <v>0.15245465073812201</v>
+        <v>0.15536070688387199</v>
       </c>
       <c r="D218">
-        <v>192581.441991536</v>
+        <v>172795.999968872</v>
       </c>
       <c r="E218">
-        <v>156147.40762261601</v>
+        <v>139040.37468116</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>3580.1770202980501</v>
+        <v>3988.5675228724999</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -24121,16 +24124,16 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>32853.857348622201</v>
+        <v>29767.057764839501</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>9.6782250959475596E-2</v>
+        <v>8.4033363731777097E-2</v>
       </c>
       <c r="M218">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -24141,19 +24144,19 @@
         <v>6.3276666666666603</v>
       </c>
       <c r="C219">
-        <v>0.15370427902286099</v>
+        <v>0.15663415530095301</v>
       </c>
       <c r="D219">
-        <v>195829.37007936099</v>
+        <v>175753.053852946</v>
       </c>
       <c r="E219">
-        <v>158556.07383651499</v>
+        <v>141184.81502006299</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>3878.6437416836702</v>
+        <v>4311.1965778261001</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -24162,16 +24165,16 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>33394.652501162702</v>
+        <v>30257.0422550562</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
       <c r="L219">
-        <v>9.6748787230408598E-2</v>
+        <v>8.3994231138319095E-2</v>
       </c>
       <c r="M219">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -24182,19 +24185,19 @@
         <v>6.3791111111111096</v>
       </c>
       <c r="C220">
-        <v>0.1549539073076</v>
+        <v>0.157907603718034</v>
       </c>
       <c r="D220">
-        <v>199118.72295003201</v>
+        <v>178750.03383145001</v>
       </c>
       <c r="E220">
-        <v>160982.02247412899</v>
+        <v>143344.63711760499</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>4196.83816789297</v>
+        <v>4654.3700951827204</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -24203,16 +24206,16 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>33939.8623080096</v>
+        <v>30751.026618662399</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>9.6715649014330496E-2</v>
+        <v>8.3955478259942706E-2</v>
       </c>
       <c r="M220">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -24223,19 +24226,19 @@
         <v>6.43055555555555</v>
       </c>
       <c r="C221">
-        <v>0.15620353559233899</v>
+        <v>0.15918105213511499</v>
       </c>
       <c r="D221">
-        <v>202450.41995486201</v>
+        <v>181787.84988513301</v>
       </c>
       <c r="E221">
-        <v>163425.23782006299</v>
+        <v>145519.826957563</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>4535.6953656365804</v>
+        <v>5019.0120719121296</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -24244,16 +24247,16 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>34489.486769162999</v>
+        <v>31249.010855658202</v>
       </c>
       <c r="K221">
         <v>0</v>
       </c>
       <c r="L221">
-        <v>9.6682830527201405E-2</v>
+        <v>8.39170983596456E-2</v>
       </c>
       <c r="M221">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -24264,19 +24267,19 @@
         <v>6.4820000000000002</v>
       </c>
       <c r="C222">
-        <v>0.157453163877077</v>
+        <v>0.16045450055219601</v>
       </c>
       <c r="D222">
-        <v>205825.40432566099</v>
+        <v>184867.432974394</v>
       </c>
       <c r="E222">
-        <v>165885.704306186</v>
+        <v>147710.370655098</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>4896.1741348527503</v>
+        <v>5406.0673532527098</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -24285,16 +24288,16 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>35043.525884622897</v>
+        <v>31750.994966043501</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>9.6650326133311301E-2</v>
+        <v>8.3879084873003495E-2</v>
       </c>
       <c r="M222">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -24305,19 +24308,19 @@
         <v>6.5334444444444397</v>
       </c>
       <c r="C223">
-        <v>0.15870279216181599</v>
+        <v>0.161727948969277</v>
       </c>
       <c r="D223">
-        <v>209244.64289388599</v>
+        <v>187989.734567212</v>
       </c>
       <c r="E223">
-        <v>168363.40650908599</v>
+        <v>149916.254454476</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>5279.2567304104996</v>
+        <v>5816.5011629171204</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -24326,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>35601.979654389099</v>
+        <v>32256.978949818302</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>9.66181303403294E-2</v>
+        <v>8.3841431402414499E-2</v>
       </c>
       <c r="M223">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -24346,19 +24349,19 @@
         <v>6.5848888888888801</v>
       </c>
       <c r="C224">
-        <v>0.159952420446555</v>
+        <v>0.16300139738635799</v>
       </c>
       <c r="D224">
-        <v>212709.12574043099</v>
+        <v>191155.72611821201</v>
       </c>
       <c r="E224">
-        <v>170858.32914757999</v>
+        <v>152137.46472685499</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>5685.9485143884403</v>
+        <v>6251.2985843745801</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -24367,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>36164.848078461902</v>
+        <v>32766.962806982701</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>9.6586237794554802E-2</v>
+        <v>8.3804131711578703E-2</v>
       </c>
       <c r="M224">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -24387,19 +24390,19 @@
         <v>6.6363333333333303</v>
       </c>
       <c r="C225">
-        <v>0.16120204873129301</v>
+        <v>0.16427484580343901</v>
       </c>
       <c r="D225">
-        <v>216219.86577982901</v>
+        <v>194366.39855685199</v>
       </c>
       <c r="E225">
-        <v>173370.457080291</v>
+        <v>154373.98796811301</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>6117.2775426964999</v>
+        <v>6711.4640512022797</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -24408,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>36732.131156841097</v>
+        <v>33280.946537536503</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>9.6554643276362095E-2</v>
+        <v>8.3767179720203103E-2</v>
       </c>
       <c r="M225">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -24428,19 +24431,19 @@
         <v>6.6877777777777698</v>
       </c>
       <c r="C226">
-        <v>0.162451677016032</v>
+        <v>0.16554829422052</v>
       </c>
       <c r="D226">
-        <v>219777.89830362599</v>
+        <v>197622.76187034199</v>
       </c>
       <c r="E226">
-        <v>175899.775303281</v>
+        <v>156625.81079674599</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>6574.2941108179602</v>
+        <v>7198.0209321161501</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -24449,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>37303.828889526703</v>
+        <v>33798.930141479897</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226">
-        <v>9.6523341695829101E-2</v>
+        <v>8.3730569498919105E-2</v>
       </c>
       <c r="M226">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -24469,19 +24472,19 @@
         <v>6.73922222222222</v>
       </c>
       <c r="C227">
-        <v>0.16370130530077101</v>
+        <v>0.16682174263760099</v>
       </c>
       <c r="D227">
-        <v>223384.280532709</v>
+        <v>200925.84487885001</v>
       </c>
       <c r="E227">
-        <v>178446.26894774701</v>
+        <v>158892.919951805</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>7058.0703084428897</v>
+        <v>7712.0113082328498</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -24490,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>37879.941276518897</v>
+        <v>34320.913618812898</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>9.6492328088541093E-2</v>
+        <v>8.3694295264403806E-2</v>
       </c>
       <c r="M227">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -24510,19 +24513,19 @@
         <v>6.7906666666666604</v>
       </c>
       <c r="C228">
-        <v>0.16495093358551</v>
+        <v>0.16809519105468201</v>
       </c>
       <c r="D228">
-        <v>227040.091249883</v>
+        <v>204276.69528490701</v>
       </c>
       <c r="E228">
-        <v>181009.92327776601</v>
+        <v>161175.30229088699</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>7569.6996542994102</v>
+        <v>8254.4960244848098</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -24531,16 +24534,16 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>38460.468317817402</v>
+        <v>34846.896969535301</v>
       </c>
       <c r="K228">
         <v>0</v>
       </c>
       <c r="L228">
-        <v>9.6461597611560507E-2</v>
+        <v>8.3658351374695003E-2</v>
       </c>
       <c r="M228">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -24551,19 +24554,19 @@
         <v>6.8421111111111097</v>
       </c>
       <c r="C229">
-        <v>0.16620056187024801</v>
+        <v>0.16936863947176301</v>
       </c>
       <c r="D229">
-        <v>230746.43059243899</v>
+        <v>207676.38002826201</v>
       </c>
       <c r="E229">
-        <v>183590.72368810599</v>
+        <v>163472.94478818099</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>8110.2968909102801</v>
+        <v>8826.5550464338503</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -24572,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>39045.410013422399</v>
+        <v>35376.880193647201</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
       <c r="L229">
-        <v>9.6431145539556395E-2</v>
+        <v>8.3622732324690793E-2</v>
       </c>
       <c r="M229">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -24592,19 +24595,19 @@
         <v>6.8935555555555501</v>
       </c>
       <c r="C230">
-        <v>0.16745019015498699</v>
+        <v>0.170642087888844</v>
       </c>
       <c r="D230">
-        <v>234504.42007036801</v>
+        <v>211125.985892464</v>
       </c>
       <c r="E230">
-        <v>186188.65570207601</v>
+        <v>165785.83453254899</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>8680.99800495817</v>
+        <v>9429.2880687665893</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -24613,16 +24616,16 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>39634.766363333903</v>
+        <v>35910.8632911487</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
-        <v>9.6400967261085296E-2</v>
+        <v>8.3587432741825299E-2</v>
       </c>
       <c r="M230">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -24633,19 +24636,19 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="C231">
-        <v>0.16869981843972601</v>
+        <v>0.17191553630592499</v>
       </c>
       <c r="D231">
-        <v>238315.20283356501</v>
+        <v>214626.62020144501</v>
       </c>
       <c r="E231">
-        <v>188803.704969435</v>
+        <v>168113.95872566401</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>9282.9604965786093</v>
+        <v>10063.8152137414</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -24654,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>40228.537367551799</v>
+        <v>36448.846262039697</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
       <c r="L231">
-        <v>9.6371058275016103E-2</v>
+        <v>8.3552447381911601E-2</v>
       </c>
       <c r="M231">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -24674,19 +24677,19 @@
         <v>6.9964444444444398</v>
       </c>
       <c r="C232">
-        <v>0.16994944672446399</v>
+        <v>0.17318898472300501</v>
       </c>
       <c r="D232">
-        <v>242179.94414124099</v>
+        <v>218179.41133465001</v>
       </c>
       <c r="E232">
-        <v>191435.85726435101</v>
+        <v>170457.304680184</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>9917.3638508141794</v>
+        <v>10731.277548145699</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -24695,16 +24698,16 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>40826.723026076099</v>
+        <v>36990.8291063203</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>9.6341414187093605E-2</v>
+        <v>8.3517771125146301E-2</v>
       </c>
       <c r="M232">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -24715,19 +24718,19 @@
         <v>7.0478888888888802</v>
       </c>
       <c r="C233">
-        <v>0.17119907500920301</v>
+        <v>0.174462433140086</v>
       </c>
       <c r="D233">
-        <v>246099.83189780801</v>
+        <v>221785.50870611699</v>
       </c>
       <c r="E233">
-        <v>194085.098483404</v>
+        <v>172815.859817972</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>10585.4100754966</v>
+        <v>11432.837064155099</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -24736,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>41429.323338906899</v>
+        <v>37536.811823990298</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
       <c r="L233">
-        <v>9.6312030706632398E-2</v>
+        <v>8.3483398972265102E-2</v>
       </c>
       <c r="M233">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -24756,19 +24759,19 @@
         <v>7.0993333333333304</v>
       </c>
       <c r="C234">
-        <v>0.17244870329394199</v>
+        <v>0.17573588155716699</v>
       </c>
       <c r="D234">
-        <v>250076.07702858301</v>
+        <v>225446.08182569101</v>
       </c>
       <c r="E234">
-        <v>196751.41464363801</v>
+        <v>175189.61166835701</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>11288.324078901</v>
+        <v>12169.6757422843</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -24777,16 +24780,16 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>42036.338306044199</v>
+        <v>38086.794415049902</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
       <c r="L234">
-        <v>9.62829036433379E-2</v>
+        <v>8.3449326040845595E-2</v>
       </c>
       <c r="M234">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -24797,19 +24800,19 @@
         <v>7.1507777777777699</v>
       </c>
       <c r="C235">
-        <v>0.173698331578681</v>
+        <v>0.17700932997424801</v>
       </c>
       <c r="D235">
-        <v>254109.913398387</v>
+        <v>229162.318112979</v>
       </c>
       <c r="E235">
-        <v>199434.791880656</v>
+        <v>177578.54786643799</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>12027.3535902436</v>
+        <v>12942.9933670421</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -24818,16 +24821,16 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>42647.767927487897</v>
+        <v>38640.776879498997</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
-        <v>9.6254028904245795E-2</v>
+        <v>8.3415547561749501E-2</v>
       </c>
       <c r="M235">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -24838,19 +24841,19 @@
         <v>7.2022222222222201</v>
       </c>
       <c r="C236">
-        <v>0.17494795986341899</v>
+        <v>0.178282778391329</v>
       </c>
       <c r="D236">
-        <v>258202.59695044701</v>
+        <v>232935.41927798299</v>
       </c>
       <c r="E236">
-        <v>202135.21644676101</v>
+        <v>179982.65615142201</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>12803.768300447</v>
+        <v>13754.003909224</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -24859,16 +24862,16 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>43263.612203238103</v>
+        <v>39198.759217337698</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
       <c r="L236">
-        <v>9.6225402490777406E-2</v>
+        <v>8.3382058875696899E-2</v>
       </c>
       <c r="M236">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -24879,19 +24882,19 @@
         <v>7.2536666666666596</v>
       </c>
       <c r="C237">
-        <v>0.176197588148158</v>
+        <v>0.17955622680840999</v>
       </c>
       <c r="D237">
-        <v>262355.403781901</v>
+        <v>236766.596310772</v>
       </c>
       <c r="E237">
-        <v>204852.67470914099</v>
+        <v>182401.924365001</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>13618.857939465001</v>
+        <v>14603.930517205201</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -24900,16 +24903,16 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>43883.871133294699</v>
+        <v>39760.741428565801</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>9.6197020495903299E-2</v>
+        <v>8.3348855429969101E-2</v>
       </c>
       <c r="M237">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -24920,19 +24923,19 @@
         <v>7.3051111111111098</v>
       </c>
       <c r="C238">
-        <v>0.17744721643289699</v>
+        <v>0.18082967522549101</v>
       </c>
       <c r="D238">
-        <v>266569.62698609702</v>
+        <v>240657.06341174801</v>
       </c>
       <c r="E238">
-        <v>207587.153148085</v>
+        <v>184836.34044977001</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>14473.9291203537</v>
+        <v>15493.9994487937</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -24941,16 +24944,16 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>44508.544717657802</v>
+        <v>40326.723513183497</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
       <c r="L238">
-        <v>9.6168879101413099E-2</v>
+        <v>8.3315932775232193E-2</v>
       </c>
       <c r="M238">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -24961,19 +24964,19 @@
         <v>7.3565555555555502</v>
       </c>
       <c r="C239">
-        <v>0.178696844717635</v>
+        <v>0.182103123642572</v>
       </c>
       <c r="D239">
-        <v>270846.57227790199</v>
+        <v>244608.03150326101</v>
       </c>
       <c r="E239">
-        <v>210338.63835525399</v>
+        <v>187285.89244767599</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>15370.3009663213</v>
+        <v>16425.433584393701</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -24982,16 +24985,16 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>45137.632956327398</v>
+        <v>40896.705471190697</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>9.6140974575283797E-2</v>
+        <v>8.3283286562477604E-2</v>
       </c>
       <c r="M239">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -25002,19 +25005,19 @@
         <v>7.4080000000000004</v>
       </c>
       <c r="C240">
-        <v>0.17994647300237401</v>
+        <v>0.18337657205965299</v>
       </c>
       <c r="D240">
-        <v>275187.55265858502</v>
+        <v>248620.70224091</v>
       </c>
       <c r="E240">
-        <v>213107.11703197801</v>
+        <v>189750.56849850199</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>16309.2997773033</v>
+        <v>17399.446439820898</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -25023,16 +25026,16 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>45771.135849303399</v>
+        <v>41470.687302587503</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>9.6113303269145106E-2</v>
+        <v>8.3250912540073399E-2</v>
       </c>
       <c r="M240">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -25043,19 +25046,19 @@
         <v>7.4594444444444399</v>
       </c>
       <c r="C241">
-        <v>0.181196101287113</v>
+        <v>0.18465002047673401</v>
       </c>
       <c r="D241">
-        <v>279593.88263967598</v>
+        <v>252696.263634456</v>
       </c>
       <c r="E241">
-        <v>215892.57598759999</v>
+        <v>192230.35683838601</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>17292.253255490199</v>
+        <v>18417.237788696799</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -25064,16 +25067,16 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>46409.053396585798</v>
+        <v>42048.669007373697</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>9.6085861615835905E-2</v>
+        <v>8.3218806550922703E-2</v>
       </c>
       <c r="M241">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -25084,19 +25087,19 @@
         <v>7.5108888888888803</v>
       </c>
       <c r="C242">
-        <v>0.18244572957185101</v>
+        <v>0.185923468893815</v>
       </c>
       <c r="D242">
-        <v>284066.87278917799</v>
+        <v>256835.888445752</v>
       </c>
       <c r="E242">
-        <v>218695.00213784599</v>
+        <v>194725.24579837301</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>18320.485053157299</v>
+        <v>19479.992061829798</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -25105,16 +25108,16 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>47051.385598174696</v>
+        <v>42630.650585549498</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>9.6058646127048397E-2</v>
+        <v>8.3186964529723503E-2</v>
       </c>
       <c r="M242">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -25125,19 +25128,19 @@
         <v>7.5623333333333296</v>
       </c>
       <c r="C243">
-        <v>0.18369535785659</v>
+        <v>0.18719691731089599</v>
       </c>
       <c r="D243">
-        <v>288607.82554317103</v>
+        <v>261040.73642131299</v>
       </c>
       <c r="E243">
-        <v>221514.38250324299</v>
+        <v>197235.22380299601</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>19395.310585857998</v>
+        <v>20588.880581201902</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -25146,16 +25149,16 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>47698.132454070001</v>
+        <v>43216.632037114803</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>9.6031653391056501E-2</v>
+        <v>8.3155382500326405E-2</v>
       </c>
       <c r="M243">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -25166,19 +25169,19 @@
         <v>7.61377777777777</v>
       </c>
       <c r="C244">
-        <v>0.18494498614132901</v>
+        <v>0.18847036572797701</v>
       </c>
       <c r="D244">
-        <v>293218.03329963097</v>
+        <v>265311.96112856298</v>
       </c>
       <c r="E244">
-        <v>224350.70420755999</v>
+        <v>199760.27936889199</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>20518.035127799099</v>
+        <v>21745.068397601099</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -25187,16 +25190,16 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>48349.293964271797</v>
+        <v>43806.613362069598</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>9.6004880070524698E-2</v>
+        <v>8.3124056573186098E-2</v>
       </c>
       <c r="M244">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -25207,19 +25210,19 @@
         <v>7.6652222222222202</v>
       </c>
       <c r="C245">
-        <v>0.18619461442606799</v>
+        <v>0.189743814145058</v>
       </c>
       <c r="D245">
-        <v>297898.77974806802</v>
+        <v>269650.72171123303</v>
       </c>
       <c r="E245">
-        <v>227203.95447629</v>
+        <v>202300.40110344399</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>21689.955142997798</v>
+        <v>22949.726047375501</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -25228,16 +25231,16 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>49004.870128780101</v>
+        <v>44400.594560414</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>9.5978322900393306E-2</v>
+        <v>8.3092982942901905E-2</v>
       </c>
       <c r="M245">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -25248,19 +25251,19 @@
         <v>7.7166666666666597</v>
       </c>
       <c r="C246">
-        <v>0.18744424271080601</v>
+        <v>0.191017262562138</v>
       </c>
       <c r="D246">
-        <v>302651.34517392999</v>
+        <v>274058.19929992303</v>
       </c>
       <c r="E246">
-        <v>230074.120635161</v>
+        <v>204855.57770344999</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246">
-        <v>22912.363591173798</v>
+        <v>24204.0459643256</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -25269,16 +25272,16 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>49664.860947594803</v>
+        <v>44998.575632147797</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>9.5951978685838699E-2</v>
+        <v>8.3062157885844395E-2</v>
       </c>
       <c r="M246">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -25289,19 +25292,19 @@
         <v>7.7681111111111099</v>
       </c>
       <c r="C247">
-        <v>0.18869387099554499</v>
+        <v>0.19229071097921899</v>
       </c>
       <c r="D247">
-        <v>307477.01611657999</v>
+        <v>278535.61716895999</v>
       </c>
       <c r="E247">
-        <v>232961.190108682</v>
+        <v>207425.79795383001</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>24186.559587182099</v>
+        <v>25509.262637858399</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -25310,16 +25313,16 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>50329.266420715903</v>
+        <v>45600.5565772712</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>9.5925844300303695E-2</v>
+        <v>8.3031577757864697E-2</v>
       </c>
       <c r="M247">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -25330,19 +25333,19 @@
         <v>7.8195555555555503</v>
       </c>
       <c r="C248">
-        <v>0.18994349928028401</v>
+        <v>0.19356415939630001</v>
       </c>
       <c r="D248">
-        <v>312377.099281064</v>
+        <v>283084.26309494302</v>
       </c>
       <c r="E248">
-        <v>235865.150418712</v>
+        <v>210011.050726349</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>25513.862314207799</v>
+        <v>26866.674972809498</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -25351,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <v>50998.086548143598</v>
+        <v>46206.537395784202</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>9.5899916683595807E-2</v>
+        <v>8.3001238992082005E-2</v>
       </c>
       <c r="M248">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -25371,19 +25374,19 @@
         <v>7.8710000000000004</v>
       </c>
       <c r="C249">
-        <v>0.19119312756502199</v>
+        <v>0.194837607813381</v>
       </c>
       <c r="D249">
-        <v>317352.93905290501</v>
+        <v>287705.51182486297</v>
       </c>
       <c r="E249">
-        <v>238785.98918306999</v>
+        <v>212611.324978374</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>26895.628539956699</v>
+        <v>28277.668758802702</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -25392,16 +25395,16 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>51671.321329877603</v>
+        <v>46816.5180876866</v>
       </c>
       <c r="K249">
         <v>0</v>
       </c>
       <c r="L249">
-        <v>9.5874192840050707E-2</v>
+        <v>8.2971138096747402E-2</v>
       </c>
       <c r="M249">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -25412,19 +25415,19 @@
         <v>7.92244444444444</v>
       </c>
       <c r="C250">
-        <v>0.192442755849761</v>
+        <v>0.19611105623046199</v>
       </c>
       <c r="D250">
-        <v>322405.93740159099</v>
+        <v>292400.84517518699</v>
       </c>
       <c r="E250">
-        <v>241723.69411416401</v>
+        <v>215226.60975165199</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>28333.272521508101</v>
+        <v>29743.736770556701</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -25433,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>52348.9707659181</v>
+        <v>47430.498652978597</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>9.5848669836758604E-2</v>
+        <v>8.2941271653180396E-2</v>
       </c>
       <c r="M250">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -25453,19 +25456,19 @@
         <v>7.9738888888888804</v>
       </c>
       <c r="C251">
-        <v>0.19369238413449999</v>
+        <v>0.19738450464754301</v>
       </c>
       <c r="D251">
-        <v>327537.57444858301</v>
+        <v>297171.86711484299</v>
       </c>
       <c r="E251">
-        <v>244678.25301765601</v>
+        <v>217856.89417111999</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>29828.286574662099</v>
+        <v>31266.493852063701</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -25474,16 +25477,16 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>53031.034856265098</v>
+        <v>48048.479091660098</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
-        <v>9.58233448018498E-2</v>
+        <v>8.2911636313774503E-2</v>
       </c>
       <c r="M251">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -25494,19 +25497,19 @@
         <v>8.0253333333333305</v>
       </c>
       <c r="C252">
-        <v>0.194942012419239</v>
+        <v>0.198657953064624</v>
       </c>
       <c r="D252">
-        <v>332749.42758388899</v>
+        <v>302020.31126797898</v>
       </c>
       <c r="E252">
-        <v>247649.653791146</v>
+        <v>220502.16744373</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>31382.2601918236</v>
+        <v>32847.684420517202</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -25515,16 +25518,16 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>53717.513600918501</v>
+        <v>48670.459403731104</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>9.5798214922838701E-2</v>
+        <v>8.2882228800070401E-2</v>
       </c>
       <c r="M252">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -25535,19 +25538,19 @@
         <v>8.0767777777777692</v>
       </c>
       <c r="C253">
-        <v>0.19619164070397699</v>
+        <v>0.19993140148170499</v>
       </c>
       <c r="D253">
-        <v>338043.18679544399</v>
+        <v>306948.038612857</v>
       </c>
       <c r="E253">
-        <v>250637.884422895</v>
+        <v>223162.41885731</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>32996.895372669896</v>
+        <v>34489.180166354497</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -25556,16 +25559,16 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>54408.406999878403</v>
+        <v>49296.439589191599</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>9.5773277445022204E-2</v>
+        <v>8.2853045900892902E-2</v>
       </c>
       <c r="M253">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -25576,19 +25579,19 @@
         <v>8.1282222222222202</v>
       </c>
       <c r="C254">
-        <v>0.197441268988716</v>
+        <v>0.20120484989878601</v>
       </c>
       <c r="D254">
-        <v>343420.66386444698</v>
+        <v>311957.02373010799</v>
       </c>
       <c r="E254">
-        <v>253642.93299056101</v>
+        <v>225837.637779435</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>34674.0158207411</v>
+        <v>36192.966302631801</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -25597,16 +25600,16 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>55103.715053144697</v>
+        <v>49926.419648041701</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
       <c r="L254">
-        <v>9.5748529669931998E-2</v>
+        <v>8.2824084470550105E-2</v>
       </c>
       <c r="M254">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -25617,19 +25620,19 @@
         <v>8.1796666666666606</v>
       </c>
       <c r="C255">
-        <v>0.19869089727345501</v>
+        <v>0.202478298315867</v>
       </c>
       <c r="D255">
-        <v>348883.79329235398</v>
+        <v>317049.32872218499</v>
       </c>
       <c r="E255">
-        <v>256664.78765996799</v>
+        <v>228527.81365632801</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>36415.567871668201</v>
+        <v>37961.115485574701</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -25638,16 +25641,16 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>55803.437760717497</v>
+        <v>50560.399580281301</v>
       </c>
       <c r="K255">
         <v>0</v>
       </c>
       <c r="L255">
-        <v>9.5723968953837293E-2</v>
+        <v>8.2795341427091801E-2</v>
       </c>
       <c r="M255">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -25658,19 +25661,19 @@
         <v>8.2311111111111099</v>
       </c>
       <c r="C256">
-        <v>0.199940525558193</v>
+        <v>0.20375174673294799</v>
       </c>
       <c r="D256">
-        <v>354434.623253497</v>
+        <v>322227.06482475501</v>
       </c>
       <c r="E256">
-        <v>259703.436683899</v>
+        <v>231232.93601178899</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>38223.611447001698</v>
+        <v>39795.7494270557</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -25679,16 +25682,16 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <v>56507.575122596703</v>
+        <v>51198.379385910397</v>
       </c>
       <c r="K256">
         <v>0</v>
       </c>
       <c r="L256">
-        <v>9.5699592706296993E-2</v>
+        <v>8.2766813750624099E-2</v>
       </c>
       <c r="M256">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -25699,19 +25702,19 @@
         <v>8.2825555555555503</v>
       </c>
       <c r="C257">
-        <v>0.20119015384293201</v>
+        <v>0.20502519515002901</v>
       </c>
       <c r="D257">
-        <v>360075.29548199399</v>
+        <v>327492.34268945002</v>
       </c>
       <c r="E257">
-        <v>262758.86840091</v>
+        <v>233952.99444612901</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>40100.299942300997</v>
+        <v>41698.989178390999</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -25720,16 +25723,16 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>57216.127138782402</v>
+        <v>51840.3590649291</v>
       </c>
       <c r="K257">
         <v>0</v>
       </c>
       <c r="L257">
-        <v>9.5675398388758603E-2</v>
+        <v>8.2738498481679801E-2</v>
       </c>
       <c r="M257">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -25740,19 +25743,19 @@
         <v>8.3339999999999996</v>
       </c>
       <c r="C258">
-        <v>0.202439782127671</v>
+        <v>0.20629864356711</v>
       </c>
       <c r="D258">
-        <v>365808.01375661098</v>
+        <v>332847.21326369903</v>
       </c>
       <c r="E258">
-        <v>265831.07123417303</v>
+        <v>236687.978635142</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>42047.848713163301</v>
+        <v>43672.896011219498</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -25761,16 +25764,16 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>57929.0938092746</v>
+        <v>52486.3386173373</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>9.5651383513202695E-2</v>
+        <v>8.2710392719641299E-2</v>
       </c>
       <c r="M258">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -25781,19 +25784,19 @@
         <v>8.38544444444444</v>
       </c>
       <c r="C259">
-        <v>0.20368941041241001</v>
+        <v>0.20757209198418999</v>
       </c>
       <c r="D259">
-        <v>371635.00148552499</v>
+        <v>338293.602060245</v>
       </c>
       <c r="E259">
-        <v>268920.03369033302</v>
+        <v>239437.87832908399</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259">
-        <v>44068.4926611189</v>
+        <v>45719.405688025297</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -25802,16 +25805,16 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>58646.475134073196</v>
+        <v>53136.318043134997</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>9.5627545640830994E-2</v>
+        <v>8.2682493621213396E-2</v>
       </c>
       <c r="M259">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -25822,19 +25825,19 @@
         <v>8.4368888888888804</v>
       </c>
       <c r="C260">
-        <v>0.204939038697148</v>
+        <v>0.20884554040127101</v>
       </c>
       <c r="D260">
-        <v>377558.44975255203</v>
+        <v>343833.24033765699</v>
       </c>
       <c r="E260">
-        <v>272025.74435839697</v>
+        <v>242202.68335168401</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>46164.434280976697</v>
+        <v>47840.259643650097</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -25843,16 +25846,16 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>59368.271113178198</v>
+        <v>53790.297342322199</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>9.5603882380795993E-2</v>
+        <v>8.2654798398945795E-2</v>
       </c>
       <c r="M260">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -25863,19 +25866,19 @@
         <v>8.4883333333333297</v>
       </c>
       <c r="C261">
-        <v>0.20618866698188701</v>
+        <v>0.210118988818352</v>
       </c>
       <c r="D261">
-        <v>383580.45800670597</v>
+        <v>349467.59725646902</v>
       </c>
       <c r="E261">
-        <v>275148.19190863898</v>
+        <v>244982.383599163</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>48337.784351477298</v>
+        <v>50036.937142406801</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -25884,16 +25887,16 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>60094.481746589699</v>
+        <v>54448.276514898898</v>
       </c>
       <c r="K261">
         <v>0</v>
       </c>
       <c r="L261">
-        <v>9.5580391388971495E-2</v>
+        <v>8.2627304319801795E-2</v>
       </c>
       <c r="M261">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -25904,19 +25907,19 @@
         <v>8.5397777777777701</v>
       </c>
       <c r="C262">
-        <v>0.20743829526662599</v>
+        <v>0.211392437235433</v>
       </c>
       <c r="D262">
-        <v>389702.97030228801</v>
+        <v>355197.81739719003</v>
       </c>
       <c r="E262">
-        <v>278287.36509152502</v>
+        <v>247776.96903927901</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>50590.498176455199</v>
+        <v>52310.592797045501</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -25925,16 +25928,16 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>60825.107034307701</v>
+        <v>55110.255560865196</v>
       </c>
       <c r="K262">
         <v>0</v>
       </c>
       <c r="L262">
-        <v>9.5557070366761102E-2</v>
+        <v>8.2600008703772404E-2</v>
       </c>
       <c r="M262">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -25945,19 +25948,19 @@
         <v>8.5912222222222194</v>
       </c>
       <c r="C263">
-        <v>0.20868792355136401</v>
+        <v>0.21266588565251399</v>
       </c>
       <c r="D263">
-        <v>395927.71057964</v>
+        <v>361024.66810154601</v>
       </c>
       <c r="E263">
-        <v>281443.25273666298</v>
+        <v>250586.42971038801</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>52924.310866644599</v>
+        <v>54662.003910936503</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -25966,16 +25969,16 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>61560.1469763321</v>
+        <v>55776.234480220999</v>
       </c>
       <c r="K263">
         <v>0</v>
       </c>
       <c r="L263">
-        <v>9.55339170599451E-2</v>
+        <v>8.2572908922533897E-2</v>
       </c>
       <c r="M263">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -25986,19 +25989,19 @@
         <v>8.6426666666666598</v>
       </c>
       <c r="C264">
-        <v>0.20993755183610299</v>
+        <v>0.21393933406959501</v>
       </c>
       <c r="D264">
-        <v>402256.12087903899</v>
+        <v>366948.500912986</v>
       </c>
       <c r="E264">
-        <v>284615.84375177301</v>
+        <v>253410.75572052301</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264">
-        <v>55340.675554602902</v>
+        <v>57091.531919496898</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -26007,16 +26010,16 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>62299.601572662898</v>
+        <v>56446.213272966299</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>9.5510929257562494E-2</v>
+        <v>8.2546002398147397E-2</v>
       </c>
       <c r="M264">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -26027,19 +26030,19 @@
         <v>8.6941111111111091</v>
       </c>
       <c r="C265">
-        <v>0.21118718012084201</v>
+        <v>0.215212782486676</v>
       </c>
       <c r="D265">
-        <v>408689.30657350703</v>
+        <v>372969.23094418301</v>
       </c>
       <c r="E265">
-        <v>287805.12712166901</v>
+        <v>256249.937246491</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>57840.708628537999</v>
+        <v>59599.101758590798</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -26048,16 +26051,16 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>63043.470823300202</v>
+        <v>57120.191939101103</v>
       </c>
       <c r="K265">
         <v>0</v>
       </c>
       <c r="L265">
-        <v>9.5488104790828005E-2</v>
+        <v>8.25192866017979E-2</v>
       </c>
       <c r="M265">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -26068,19 +26071,19 @@
         <v>8.7455555555555495</v>
       </c>
       <c r="C266">
-        <v>0.21243680840558099</v>
+        <v>0.21648623090375699</v>
       </c>
       <c r="D266">
-        <v>415227.99267194897</v>
+        <v>379086.33729803399</v>
       </c>
       <c r="E266">
-        <v>291011.09190726897</v>
+        <v>259103.96453298599</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>60425.146036435697</v>
+        <v>62184.202286422696</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -26089,16 +26092,16 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>63791.754728243999</v>
+        <v>57798.1704786255</v>
       </c>
       <c r="K266">
         <v>0</v>
       </c>
       <c r="L266">
-        <v>9.5465441532082307E-2</v>
+        <v>8.2492759052573306E-2</v>
       </c>
       <c r="M266">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -26109,19 +26112,19 @@
         <v>8.7970000000000006</v>
       </c>
       <c r="C267">
-        <v>0.213686436690319</v>
+        <v>0.21775967932083801</v>
       </c>
       <c r="D267">
-        <v>421872.49497338</v>
+        <v>385298.886738898</v>
       </c>
       <c r="E267">
-        <v>294233.72724462103</v>
+        <v>261972.82789172101</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>63094.314441264803</v>
+        <v>64845.909955637697</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -26130,16 +26133,16 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>64544.453287494202</v>
+        <v>58480.1488915394</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>9.5442937393774699E-2</v>
+        <v>8.2466417316279697E-2</v>
       </c>
       <c r="M267">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -26150,19 +26153,19 @@
         <v>8.8484444444444392</v>
       </c>
       <c r="C268">
-        <v>0.21493606497505799</v>
+        <v>0.219033127737919</v>
       </c>
       <c r="D268">
-        <v>428622.70934839197</v>
+        <v>391605.581692298</v>
       </c>
       <c r="E268">
-        <v>297473.02234394499</v>
+        <v>264856.51770057098</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>65848.120503395796</v>
+        <v>67582.936813884793</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -26171,16 +26174,16 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>65301.566501050896</v>
+        <v>59166.127177842798</v>
       </c>
       <c r="K268">
         <v>0</v>
       </c>
       <c r="L268">
-        <v>9.5420590327476601E-2</v>
+        <v>8.2440259004293595E-2</v>
       </c>
       <c r="M268">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -26191,19 +26194,19 @@
         <v>8.8998888888888903</v>
       </c>
       <c r="C269">
-        <v>0.216185693259797</v>
+        <v>0.22030657615499999</v>
       </c>
       <c r="D269">
-        <v>435478.12169967598</v>
+        <v>398004.832400429</v>
       </c>
       <c r="E269">
-        <v>300728.96648869303</v>
+        <v>267755.02440273901</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>68686.060842069404</v>
+        <v>70393.702660154493</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -26212,16 +26215,16 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <v>66063.094368913997</v>
+        <v>59856.105337535701</v>
       </c>
       <c r="K269">
         <v>0</v>
       </c>
       <c r="L269">
-        <v>9.5398398322924502E-2</v>
+        <v>8.2414281772448306E-2</v>
       </c>
       <c r="M269">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -26232,19 +26235,19 @@
         <v>8.9513333333333307</v>
       </c>
       <c r="C270">
-        <v>0.21743532154453499</v>
+        <v>0.22158002457208101</v>
       </c>
       <c r="D270">
-        <v>442437.84023700497</v>
+        <v>404494.85174823902</v>
       </c>
       <c r="E270">
-        <v>304001.54903462803</v>
+        <v>270668.33850593201</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <v>71607.254311293407</v>
+        <v>73276.429871688801</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -26253,16 +26256,16 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>66829.036891083495</v>
+        <v>60550.0833706181</v>
       </c>
       <c r="K270">
         <v>0</v>
       </c>
       <c r="L270">
-        <v>9.5376359407092298E-2</v>
+        <v>8.2388483319954006E-2</v>
       </c>
       <c r="M270">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -26273,19 +26276,19 @@
         <v>9.0027777777777693</v>
       </c>
       <c r="C271">
-        <v>0.218684949829274</v>
+        <v>0.222853472989162</v>
       </c>
       <c r="D271">
-        <v>449500.65063501801</v>
+        <v>411073.76998302003</v>
       </c>
       <c r="E271">
-        <v>307290.759408921</v>
+        <v>273596.45058155298</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>74610.497158537997</v>
+        <v>76229.258124376094</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -26294,16 +26297,16 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>67599.394067559595</v>
+        <v>61248.061277090099</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>9.5354471643291305E-2</v>
+        <v>8.2362861388350098E-2</v>
       </c>
       <c r="M271">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -26314,19 +26317,19 @@
         <v>9.0542222222222204</v>
       </c>
       <c r="C272">
-        <v>0.21993457811401301</v>
+        <v>0.22412692140624299</v>
       </c>
       <c r="D272">
-        <v>456665.09347975103</v>
+        <v>417739.76536664198</v>
       </c>
       <c r="E272">
-        <v>310596.58710926003</v>
+        <v>276539.351263911</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>77694.340472148193</v>
+        <v>79250.375045779103</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -26335,16 +26338,16 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>68374.165898342093</v>
+        <v>61950.039056951697</v>
       </c>
       <c r="K272">
         <v>0</v>
       </c>
       <c r="L272">
-        <v>9.5332733130296596E-2</v>
+        <v>8.2337413760488795E-2</v>
       </c>
       <c r="M272">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -26355,19 +26358,19 @@
         <v>9.1056666666666608</v>
       </c>
       <c r="C273">
-        <v>0.221184206398752</v>
+        <v>0.22540036982332301</v>
       </c>
       <c r="D273">
-        <v>463929.56221863697</v>
+        <v>424491.20580906898</v>
       </c>
       <c r="E273">
-        <v>313919.02170298097</v>
+        <v>279497.03124943899</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>80857.188132225507</v>
+        <v>82338.157849427094</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -26376,16 +26379,16 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>69153.352383431004</v>
+        <v>62656.016710202697</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
       <c r="L273">
-        <v>9.5311142001499802E-2</v>
+        <v>8.2312138259548404E-2</v>
       </c>
       <c r="M273">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -26396,19 +26399,19 @@
         <v>9.1571111111111101</v>
       </c>
       <c r="C274">
-        <v>0.22243383468349001</v>
+        <v>0.226673818240404</v>
       </c>
       <c r="D274">
-        <v>471292.41868316702</v>
+        <v>431326.79580857197</v>
       </c>
       <c r="E274">
-        <v>317258.05282620603</v>
+        <v>282469.48129593401</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>84097.412334134904</v>
+        <v>85491.320275794802</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -26417,16 +26420,16 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>69936.953522826399</v>
+        <v>63365.994236843202</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>9.5289696424086204E-2</v>
+        <v>8.2287032748076097E-2</v>
       </c>
       <c r="M274">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -26437,19 +26440,19 @@
         <v>9.2085555555555505</v>
       </c>
       <c r="C275">
-        <v>0.223683462968229</v>
+        <v>0.22794726665748499</v>
       </c>
       <c r="D275">
-        <v>478752.12222963001</v>
+        <v>438245.72262300801</v>
       </c>
       <c r="E275">
-        <v>320613.67018300702</v>
+        <v>285456.69222180097</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>87413.482730094707</v>
+        <v>88709.058764333502</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -26458,16 +26461,16 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>70724.969316528193</v>
+        <v>64079.971636873299</v>
       </c>
       <c r="K275">
         <v>0</v>
       </c>
       <c r="L275">
-        <v>9.5268394598236605E-2</v>
+        <v>8.2262095127058399E-2</v>
       </c>
       <c r="M275">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -26478,19 +26481,19 @@
         <v>9.26</v>
       </c>
       <c r="C276">
-        <v>0.22493309125296801</v>
+        <v>0.22922071507456601</v>
       </c>
       <c r="D276">
-        <v>486307.36771311698</v>
+        <v>445247.79554661497</v>
       </c>
       <c r="E276">
-        <v>323985.86354457802</v>
+        <v>288458.65490532102</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>90804.104404002195</v>
+        <v>91991.191731000596</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -26499,16 +26502,16 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <v>71517.399764536502</v>
+        <v>64797.9489102929</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
       <c r="L276">
-        <v>9.5247234756351704E-2</v>
+        <v>8.2237323335018597E-2</v>
       </c>
       <c r="M276">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -26519,19 +26522,19 @@
         <v>9.3114444444444402</v>
       </c>
       <c r="C277">
-        <v>0.226182719537706</v>
+        <v>0.230494163491647</v>
       </c>
       <c r="D277">
-        <v>493957.22693251498</v>
+        <v>452333.57246737398</v>
       </c>
       <c r="E277">
-        <v>327374.62274842203</v>
+        <v>291475.360283927</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>94268.359317241004</v>
+        <v>95338.286126345003</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -26540,16 +26543,16 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>72314.244866851295</v>
+        <v>65519.9260571021</v>
       </c>
       <c r="K277">
         <v>0</v>
       </c>
       <c r="L277">
-        <v>9.5226215162299399E-2</v>
+        <v>8.22127153471406E-2</v>
       </c>
       <c r="M277">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -26560,19 +26563,19 @@
         <v>9.3628888888888895</v>
       </c>
       <c r="C278">
-        <v>0.22743234782244501</v>
+        <v>0.23176761190872799</v>
       </c>
       <c r="D278">
-        <v>501701.28790092003</v>
+        <v>459504.46850075998</v>
       </c>
       <c r="E278">
-        <v>330779.937697555</v>
+        <v>294506.79935348599</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>97805.845579892106</v>
+        <v>98751.766069973601</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -26581,16 +26584,16 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>73115.504623472501</v>
+        <v>66245.903077300696</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>9.5205334110683298E-2</v>
+        <v>8.2188269174417405E-2</v>
       </c>
       <c r="M278">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -26601,19 +26604,19 @@
         <v>9.4143333333333299</v>
       </c>
       <c r="C279">
-        <v>0.22868197610718399</v>
+        <v>0.23304106032580901</v>
       </c>
       <c r="D279">
-        <v>509539.78632463299</v>
+        <v>466762.84237972199</v>
       </c>
       <c r="E279">
-        <v>334201.79835972202</v>
+        <v>297552.96316760802</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>101416.80893051</v>
+        <v>102233.999241225</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -26622,16 +26625,16 @@
         <v>0</v>
       </c>
       <c r="J279">
-        <v>73921.179034400106</v>
+        <v>66975.879970888898</v>
       </c>
       <c r="K279">
         <v>0</v>
       </c>
       <c r="L279">
-        <v>9.5184589926133004E-2</v>
+        <v>8.2163982862824697E-2</v>
       </c>
       <c r="M279">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -26642,19 +26645,19 @@
         <v>9.4657777777777703</v>
       </c>
       <c r="C280">
-        <v>0.22993160439192301</v>
+        <v>0.23431450874289</v>
       </c>
       <c r="D280">
-        <v>517473.72400740703</v>
+        <v>474112.05735120102</v>
       </c>
       <c r="E280">
-        <v>337640.19476662797</v>
+        <v>300613.842836953</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>105102.261141144</v>
+        <v>105788.35777638201</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -26663,16 +26666,16 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>74731.268099634195</v>
+        <v>67709.856737866605</v>
       </c>
       <c r="K280">
         <v>0</v>
       </c>
       <c r="L280">
-        <v>9.5163980962613401E-2</v>
+        <v>8.2139854492517206E-2</v>
       </c>
       <c r="M280">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -26683,19 +26686,19 @@
         <v>9.5172222222222196</v>
       </c>
       <c r="C281">
-        <v>0.23118123267666099</v>
+        <v>0.235587957159971</v>
       </c>
       <c r="D281">
-        <v>525504.96950288594</v>
+        <v>481556.51449848502</v>
       </c>
       <c r="E281">
-        <v>341095.117013179</v>
+        <v>303689.42952856002</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>108864.080670532</v>
+        <v>109419.25159169</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -26704,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>75545.771819174799</v>
+        <v>68447.833378233801</v>
       </c>
       <c r="K281">
         <v>0</v>
       </c>
       <c r="L281">
-        <v>9.5143505602754502E-2</v>
+        <v>8.2115882177047905E-2</v>
       </c>
       <c r="M281">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -26724,19 +26727,19 @@
         <v>9.56866666666666</v>
       </c>
       <c r="C282">
-        <v>0.2324308609614</v>
+        <v>0.23686140557705199</v>
       </c>
       <c r="D282">
-        <v>533636.33716400794</v>
+        <v>489101.65758640802</v>
       </c>
       <c r="E282">
-        <v>344566.555256741</v>
+        <v>306779.71446518297</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>112705.09171424501</v>
+        <v>113132.13322923399</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -26745,16 +26748,16 @@
         <v>0</v>
       </c>
       <c r="J282">
-        <v>76364.690193021801</v>
+        <v>69189.809891990604</v>
       </c>
       <c r="K282">
         <v>0</v>
       </c>
       <c r="L282">
-        <v>9.5123162257199398E-2</v>
+        <v>8.2092064062609799E-2</v>
       </c>
       <c r="M282">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -26765,19 +26768,19 @@
         <v>9.6201111111111093</v>
       </c>
       <c r="C283">
-        <v>0.23368048924613899</v>
+        <v>0.23813485399413301</v>
       </c>
       <c r="D283">
-        <v>541871.64171515999</v>
+        <v>496753.94963093998</v>
       </c>
       <c r="E283">
-        <v>348054.49971640902</v>
+        <v>309884.68892463698</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>116629.118777575</v>
+        <v>116933.474427166</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -26786,16 +26789,16 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>77188.023221175303</v>
+        <v>69935.786279136795</v>
       </c>
       <c r="K283">
         <v>0</v>
       </c>
       <c r="L283">
-        <v>9.5102949363971401E-2</v>
+        <v>8.20683983272983E-2</v>
       </c>
       <c r="M283">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -26806,19 +26809,19 @@
         <v>9.6715555555555497</v>
       </c>
       <c r="C284">
-        <v>0.234930117530877</v>
+        <v>0.239408302411214</v>
       </c>
       <c r="D284">
-        <v>550215.72652478004</v>
+        <v>504520.82235875499</v>
       </c>
       <c r="E284">
-        <v>351558.94067228702</v>
+        <v>313004.34423915797</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>120641.014948857</v>
+        <v>120830.715579924</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26827,16 +26830,16 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>78015.770903635203</v>
+        <v>70685.762539672607</v>
       </c>
       <c r="K284">
         <v>0</v>
       </c>
       <c r="L284">
-        <v>9.5082865387857707E-2</v>
+        <v>8.2044883180394199E-2</v>
       </c>
       <c r="M284">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -26847,19 +26850,19 @@
         <v>9.7230000000000008</v>
       </c>
       <c r="C285">
-        <v>0.23617974581561599</v>
+        <v>0.24068175082829499</v>
       </c>
       <c r="D285">
-        <v>558674.46480667905</v>
+        <v>512410.60049926699</v>
       </c>
       <c r="E285">
-        <v>355079.868464784</v>
+        <v>316138.671794775</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>124746.663101493</v>
+        <v>124832.19003089301</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -26868,16 +26871,16 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>78847.9332404015</v>
+        <v>71439.738673597894</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>9.5062908819810499E-2</v>
+        <v>8.2021516861666505E-2</v>
       </c>
       <c r="M285">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -26888,19 +26891,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C286">
-        <v>0.237429374100355</v>
+        <v>0.24195519924537501</v>
       </c>
       <c r="D286">
-        <v>567254.73395884398</v>
+        <v>520432.40341673099</v>
       </c>
       <c r="E286">
-        <v>358617.27349391801</v>
+        <v>319287.66303068801</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>128952.95023345199</v>
+        <v>128947.025705129</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -26909,16 +26912,16 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>79684.510231474298</v>
+        <v>72197.714680912803</v>
       </c>
       <c r="K286">
         <v>0</v>
       </c>
       <c r="L286">
-        <v>9.5043078176365495E-2</v>
+        <v>8.1998297640694801E-2</v>
       </c>
       <c r="M286">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -26929,19 +26932,19 @@
         <v>9.8258888888888904</v>
       </c>
       <c r="C287">
-        <v>0.23867900238509401</v>
+        <v>0.243228647662456</v>
       </c>
       <c r="D287">
-        <v>575964.36410335999</v>
+        <v>528596.02694105904</v>
       </c>
       <c r="E287">
-        <v>362171.14621863299</v>
+        <v>322451.30943865998</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>133267.71600787301</v>
+        <v>133185.02694078101</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -26950,16 +26953,16 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>80525.501876853596</v>
+        <v>72959.690561617201</v>
       </c>
       <c r="K287">
         <v>0</v>
       </c>
       <c r="L287">
-        <v>9.5023371999074999E-2</v>
+        <v>8.1975223816209697E-2</v>
       </c>
       <c r="M287">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -26970,19 +26973,19 @@
         <v>9.8773333333333309</v>
       </c>
       <c r="C288">
-        <v>0.239928630669832</v>
+        <v>0.24450209607953699</v>
       </c>
       <c r="D288">
-        <v>584812.062582104</v>
+        <v>536911.80840965395</v>
       </c>
       <c r="E288">
-        <v>365741.47715613001</v>
+        <v>325629.60256241902</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288">
-        <v>137699.677249434</v>
+        <v>137556.539531524</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -26991,16 +26994,16 @@
         <v>0</v>
       </c>
       <c r="J288">
-        <v>81370.908176539393</v>
+        <v>73725.666315711103</v>
       </c>
       <c r="K288">
         <v>0</v>
       </c>
       <c r="L288">
-        <v>9.50037888539568E-2</v>
+        <v>8.1952293715451499E-2</v>
       </c>
       <c r="M288">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -27011,19 +27014,19 @@
         <v>9.9287777777777695</v>
       </c>
       <c r="C289">
-        <v>0.24117825895457101</v>
+        <v>0.24577554449661801</v>
       </c>
       <c r="D289">
-        <v>593807.316670664</v>
+        <v>545390.47792070801</v>
       </c>
       <c r="E289">
-        <v>369328.25688120298</v>
+        <v>328822.53399706498</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289">
-        <v>142258.33065892899</v>
+        <v>142072.30198044801</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -27032,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <v>82220.729130531501</v>
+        <v>74495.641943194496</v>
       </c>
       <c r="K289">
         <v>0</v>
       </c>
       <c r="L289">
-        <v>9.4984327330959198E-2</v>
+        <v>8.1929505693546498E-2</v>
       </c>
       <c r="M289">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -27052,19 +27055,19 @@
         <v>9.9802222222222206</v>
       </c>
       <c r="C290">
-        <v>0.24242788723931</v>
+        <v>0.247048992913699</v>
       </c>
       <c r="D290">
-        <v>602960.27709630097</v>
+        <v>554042.99866226094</v>
       </c>
       <c r="E290">
-        <v>372931.47602559603</v>
+        <v>332030.09538849699</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
       <c r="G290">
-        <v>146953.83633187399</v>
+        <v>146743.28582969599</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -27073,16 +27076,16 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>83074.964738830095</v>
+        <v>75269.617444067393</v>
       </c>
       <c r="K290">
         <v>0</v>
       </c>
       <c r="L290">
-        <v>9.4964986043438601E-2</v>
+        <v>8.1906858132899302E-2</v>
       </c>
       <c r="M290">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -27093,19 +27096,19 @@
         <v>10.031666666666601</v>
       </c>
       <c r="C291">
-        <v>0.24367751552404801</v>
+        <v>0.24832244133077999</v>
       </c>
       <c r="D291">
-        <v>612281.625099589</v>
+        <v>562880.39896664396</v>
       </c>
       <c r="E291">
-        <v>376551.125277357</v>
+        <v>335252.27843284002</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
       <c r="G291">
-        <v>151796.884820796</v>
+        <v>151580.52771547399</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -27114,16 +27117,16 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>83933.615001435202</v>
+        <v>76047.592818329897</v>
       </c>
       <c r="K291">
         <v>0</v>
       </c>
       <c r="L291">
-        <v>9.4945763627652502E-2</v>
+        <v>8.1884349442602103E-2</v>
       </c>
       <c r="M291">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -27134,19 +27137,19 @@
         <v>10.0831111111111</v>
       </c>
       <c r="C292">
-        <v>0.244927143808787</v>
+        <v>0.24959588974786101</v>
       </c>
       <c r="D292">
-        <v>621782.42579077499</v>
+        <v>571913.59849170805</v>
       </c>
       <c r="E292">
-        <v>380187.19538021501</v>
+        <v>338489.07487588201</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
       <c r="G292">
-        <v>156798.55049221299</v>
+        <v>156594.95554984399</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -27155,16 +27158,16 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <v>84796.679918346796</v>
+        <v>76829.568065981905</v>
       </c>
       <c r="K292">
         <v>0</v>
       </c>
       <c r="L292">
-        <v>9.4926658742265399E-2</v>
+        <v>8.1861978057859899E-2</v>
       </c>
       <c r="M292">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -27175,19 +27178,19 @@
         <v>10.134555555555499</v>
       </c>
       <c r="C293">
-        <v>0.24617677209352601</v>
+        <v>0.250869338164942</v>
       </c>
       <c r="D293">
-        <v>631473.97045590798</v>
+        <v>581153.23068899999</v>
       </c>
       <c r="E293">
-        <v>383839.67713295901</v>
+        <v>341740.47651252802</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
       <c r="G293">
-        <v>161970.133833384</v>
+        <v>161797.210989449</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -27196,16 +27199,16 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <v>85664.159489564801</v>
+        <v>77615.543187023402</v>
       </c>
       <c r="K293">
         <v>0</v>
       </c>
       <c r="L293">
-        <v>9.4907670067868002E-2</v>
+        <v>8.1839742439430194E-2</v>
       </c>
       <c r="M293">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -27216,19 +27219,19 @@
         <v>10.186</v>
       </c>
       <c r="C294">
-        <v>0.24742640037826499</v>
+        <v>0.25214278658202299</v>
       </c>
       <c r="D294">
-        <v>641367.610303186</v>
+        <v>590609.46351747296</v>
       </c>
       <c r="E294">
-        <v>387508.56138883199</v>
+        <v>345006.47518625198</v>
       </c>
       <c r="F294">
         <v>0</v>
       </c>
       <c r="G294">
-        <v>167322.995199264</v>
+        <v>167197.470149767</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -27237,16 +27240,16 @@
         <v>0</v>
       </c>
       <c r="J294">
-        <v>86536.053715089205</v>
+        <v>78405.518181454507</v>
       </c>
       <c r="K294">
         <v>0</v>
       </c>
       <c r="L294">
-        <v>9.4888796306509399E-2</v>
+        <v>8.1817641073078304E-2</v>
       </c>
       <c r="M294">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -27257,19 +27260,19 @@
         <v>10.237444444444399</v>
       </c>
       <c r="C295">
-        <v>0.24867602866300301</v>
+        <v>0.25341623499910398</v>
       </c>
       <c r="D295">
-        <v>651474.58394497004</v>
+        <v>600291.82022308395</v>
       </c>
       <c r="E295">
-        <v>391193.839054932</v>
+        <v>348287.06278856797</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
       <c r="G295">
-        <v>172868.382295118</v>
+        <v>172805.264385241</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -27278,16 +27281,16 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>87412.362594920094</v>
+        <v>79199.493049274999</v>
       </c>
       <c r="K295">
         <v>0</v>
       </c>
       <c r="L295">
-        <v>9.4870036181240902E-2</v>
+        <v>8.1795672469046204E-2</v>
       </c>
       <c r="M295">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -27298,19 +27301,19 @@
         <v>10.288888888888801</v>
       </c>
       <c r="C296">
-        <v>0.24992565694774199</v>
+        <v>0.25468968341618498</v>
       </c>
       <c r="D296">
-        <v>661805.84071991395</v>
+        <v>610209.00194293598</v>
       </c>
       <c r="E296">
-        <v>394895.50109162298</v>
+        <v>351582.23125850398</v>
       </c>
       <c r="F296">
         <v>0</v>
       </c>
       <c r="G296">
-        <v>178617.25349923299</v>
+        <v>178629.302893947</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -27319,16 +27322,16 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <v>88293.086129057396</v>
+        <v>79997.467790485098</v>
       </c>
       <c r="K296">
         <v>0</v>
       </c>
       <c r="L296">
-        <v>9.4851388435672299E-2</v>
+        <v>8.1773835161535996E-2</v>
       </c>
       <c r="M296">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -27339,19 +27342,19 @@
         <v>10.3403333333333</v>
       </c>
       <c r="C297">
-        <v>0.251175285232481</v>
+        <v>0.25596313183326602</v>
       </c>
       <c r="D297">
-        <v>672371.86180084595</v>
+        <v>620368.71391085302</v>
       </c>
       <c r="E297">
-        <v>398613.538511955</v>
+        <v>354891.97258207999</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
       <c r="G297">
-        <v>184580.098971389</v>
+        <v>184677.29892368801</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -27360,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <v>89178.224317501299</v>
+        <v>80799.442405084701</v>
       </c>
       <c r="K297">
         <v>0</v>
       </c>
       <c r="L297">
-        <v>9.4832851833539594E-2</v>
+        <v>8.1752127708206307E-2</v>
       </c>
       <c r="M297">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -27380,19 +27383,19 @@
         <v>10.391777777777699</v>
       </c>
       <c r="C298">
-        <v>0.25242491351721902</v>
+        <v>0.25723658025034701</v>
       </c>
       <c r="D298">
-        <v>683182.48092770798</v>
+        <v>630777.49713360204</v>
       </c>
       <c r="E298">
-        <v>402347.942381097</v>
+        <v>358216.27879180701</v>
       </c>
       <c r="F298">
         <v>0</v>
       </c>
       <c r="G298">
-        <v>190766.76138635899</v>
+        <v>190955.80144872001</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27401,16 +27404,16 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <v>90067.777160251499</v>
+        <v>81605.416893073896</v>
       </c>
       <c r="K298">
         <v>0</v>
       </c>
       <c r="L298">
-        <v>9.4814425158283797E-2</v>
+        <v>8.1730548689682103E-2</v>
       </c>
       <c r="M298">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -27421,19 +27424,19 @@
         <v>10.4432222222222</v>
       </c>
       <c r="C299">
-        <v>0.25367454180195798</v>
+        <v>0.258510028667428</v>
       </c>
       <c r="D299">
-        <v>694246.70656260697</v>
+        <v>641440.56755941105</v>
       </c>
       <c r="E299">
-        <v>406098.70381577098</v>
+        <v>361555.14196618198</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
       <c r="G299">
-        <v>197186.25808952699</v>
+        <v>197470.03433877599</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27442,16 +27445,16 @@
         <v>0</v>
       </c>
       <c r="J299">
-        <v>90961.744657308198</v>
+        <v>82415.391254452494</v>
       </c>
       <c r="K299">
         <v>0</v>
       </c>
       <c r="L299">
-        <v>9.4796107212641006E-2</v>
+        <v>8.1709096709076404E-2</v>
       </c>
       <c r="M299">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -27462,19 +27465,19 @@
         <v>10.4946666666666</v>
       </c>
       <c r="C300">
-        <v>0.25492417008669699</v>
+        <v>0.259783477084508</v>
       </c>
       <c r="D300">
-        <v>705572.54728914902</v>
+        <v>652361.66495305696</v>
       </c>
       <c r="E300">
-        <v>409865.81398370402</v>
+        <v>364908.55422919401</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
       <c r="G300">
-        <v>203846.60649677299</v>
+        <v>204223.74523464299</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -27483,16 +27486,16 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>91860.126808671397</v>
+        <v>83229.365489220698</v>
       </c>
       <c r="K300">
         <v>0</v>
       </c>
       <c r="L300">
-        <v>9.4777896818242002E-2</v>
+        <v>8.1687770391525499E-2</v>
       </c>
       <c r="M300">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -27503,19 +27506,19 @@
         <v>10.546111111111101</v>
       </c>
       <c r="C301">
-        <v>0.256173798371435</v>
+        <v>0.26105692550158899</v>
       </c>
       <c r="D301">
-        <v>717166.84236577805</v>
+        <v>663542.91389966197</v>
       </c>
       <c r="E301">
-        <v>413649.26410308102</v>
+        <v>368276.50774984201</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301">
-        <v>210754.654648355</v>
+        <v>211219.066552442</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -27524,16 +27527,16 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>92762.923614340994</v>
+        <v>84047.339597378406</v>
       </c>
       <c r="K301">
         <v>0</v>
       </c>
       <c r="L301">
-        <v>9.4759792815223495E-2</v>
+        <v>8.1666568383734803E-2</v>
       </c>
       <c r="M301">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -27544,19 +27547,19 @@
         <v>10.5975555555555</v>
       </c>
       <c r="C302">
-        <v>0.25742342665617401</v>
+        <v>0.26233037391866998</v>
       </c>
       <c r="D302">
-        <v>729035.09948105598</v>
+        <v>674984.69955523999</v>
       </c>
       <c r="E302">
-        <v>417449.04544201301</v>
+        <v>371658.99474165699</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302">
-        <v>217915.91896472499</v>
+        <v>218456.391234657</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27565,16 +27568,16 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>93670.135074317106</v>
+        <v>84869.313578925707</v>
       </c>
       <c r="K302">
         <v>0</v>
       </c>
       <c r="L302">
-        <v>9.4741794061848003E-2</v>
+        <v>8.1645489353536799E-2</v>
       </c>
       <c r="M302">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -27585,19 +27588,19 @@
         <v>10.648999999999999</v>
       </c>
       <c r="C303">
-        <v>0.25867305494091303</v>
+        <v>0.26360382233575103</v>
       </c>
       <c r="D303">
-        <v>741181.34193041106</v>
+        <v>686685.56091765396</v>
       </c>
       <c r="E303">
-        <v>421265.14931800502</v>
+        <v>375056.00746222999</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303">
-        <v>225334.43142380501</v>
+        <v>225934.26602156201</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -27606,16 +27609,16 @@
         <v>0</v>
       </c>
       <c r="J303">
-        <v>94581.761188599601</v>
+        <v>85695.287433862395</v>
       </c>
       <c r="K303">
         <v>0</v>
       </c>
       <c r="L303">
-        <v>9.4723899434133604E-2</v>
+        <v>8.1624531989460403E-2</v>
       </c>
       <c r="M303">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -27626,19 +27629,19 @@
         <v>10.7004444444444</v>
       </c>
       <c r="C304">
-        <v>0.25992268322565198</v>
+        <v>0.26487727075283202</v>
       </c>
       <c r="D304">
-        <v>753607.96761726995</v>
+        <v>698642.10447991895</v>
       </c>
       <c r="E304">
-        <v>425097.56709744298</v>
+        <v>378467.53821274999</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304">
-        <v>233012.59856263801</v>
+        <v>233649.30510498001</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27647,16 +27650,16 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <v>95497.801957188494</v>
+        <v>86525.261162188704</v>
       </c>
       <c r="K304">
         <v>0</v>
       </c>
       <c r="L304">
-        <v>9.4706107825494004E-2</v>
+        <v>8.16036950003102E-2</v>
       </c>
       <c r="M304">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -27667,19 +27670,19 @@
         <v>10.7518888888888</v>
       </c>
       <c r="C305">
-        <v>0.26117231151039</v>
+        <v>0.26615071916991301</v>
       </c>
       <c r="D305">
-        <v>766315.62245272798</v>
+        <v>710848.94112427405</v>
       </c>
       <c r="E305">
-        <v>428946.29019507801</v>
+        <v>381893.579337548</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305">
-        <v>240951.074877565</v>
+        <v>241596.12702282099</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -27688,16 +27691,16 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>96418.257380084004</v>
+        <v>87359.234763904504</v>
       </c>
       <c r="K305">
         <v>0</v>
       </c>
       <c r="L305">
-        <v>9.4688418146385997E-2</v>
+        <v>8.1582977114757399E-2</v>
       </c>
       <c r="M305">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -27708,19 +27711,19 @@
         <v>10.803333333333301</v>
       </c>
       <c r="C306">
-        <v>0.26242193979512901</v>
+        <v>0.267424167586994</v>
       </c>
       <c r="D306">
-        <v>779303.09086217301</v>
+        <v>723298.64900032396</v>
       </c>
       <c r="E306">
-        <v>432811.31007352599</v>
+        <v>385334.12322364899</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306">
-        <v>249148.65333135999</v>
+        <v>249767.31753766499</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -27729,16 +27732,16 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <v>97343.127457285795</v>
+        <v>88197.208239009793</v>
       </c>
       <c r="K306">
         <v>0</v>
       </c>
       <c r="L306">
-        <v>9.4670829323966907E-2</v>
+        <v>8.1562377080940204E-2</v>
       </c>
       <c r="M306">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -27749,19 +27752,19 @@
         <v>10.8547777777777</v>
       </c>
       <c r="C307">
-        <v>0.26367156807986802</v>
+        <v>0.26869761600407499</v>
       </c>
       <c r="D307">
-        <v>792567.20618049405</v>
+        <v>735981.76488959405</v>
       </c>
       <c r="E307">
-        <v>436692.61824277003</v>
+        <v>388789.16230032803</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307">
-        <v>257602.175748929</v>
+        <v>258153.42100176</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -27770,16 +27773,16 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <v>98272.412188794202</v>
+        <v>89039.181587504703</v>
       </c>
       <c r="K307">
         <v>0</v>
       </c>
       <c r="L307">
-        <v>9.4653340301760203E-2</v>
+        <v>8.15418936660742E-2</v>
       </c>
       <c r="M307">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -27790,19 +27793,19 @@
         <v>10.906222222222199</v>
       </c>
       <c r="C308">
-        <v>0.26492119636460598</v>
+        <v>0.26997106442115598</v>
       </c>
       <c r="D308">
-        <v>806102.783707847</v>
+        <v>748886.80618496099</v>
       </c>
       <c r="E308">
-        <v>440590.20625967399</v>
+        <v>392258.68903867702</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308">
-        <v>266306.46587356302</v>
+        <v>266742.962336895</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -27811,16 +27814,16 @@
         <v>0</v>
       </c>
       <c r="J308">
-        <v>99206.111574609007</v>
+        <v>89885.154809389103</v>
       </c>
       <c r="K308">
         <v>0</v>
       </c>
       <c r="L308">
-        <v>9.4635950039328995E-2</v>
+        <v>8.1521525656072499E-2</v>
       </c>
       <c r="M308">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -27831,19 +27834,19 @@
         <v>10.957666666666601</v>
       </c>
       <c r="C309">
-        <v>0.26617082464934499</v>
+        <v>0.27124451283823697</v>
       </c>
       <c r="D309">
-        <v>819902.579087483</v>
+        <v>762000.32510725898</v>
       </c>
       <c r="E309">
-        <v>444504.06572750001</v>
+        <v>395742.69595117099</v>
       </c>
       <c r="F309">
         <v>0</v>
       </c>
       <c r="G309">
-        <v>275254.28774525301</v>
+        <v>275522.50125142501</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -27852,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <v>100144.22561473001</v>
+        <v>90735.127904662993</v>
       </c>
       <c r="K309">
         <v>0</v>
       </c>
       <c r="L309">
-        <v>9.4618657511958207E-2</v>
+        <v>8.1501271855175195E-2</v>
       </c>
       <c r="M309">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -27872,19 +27875,19 @@
         <v>11.0091111111111</v>
       </c>
       <c r="C310">
-        <v>0.26742045293408401</v>
+        <v>0.27251796125531802</v>
       </c>
       <c r="D310">
-        <v>833957.27444284502</v>
+        <v>775306.99615156604</v>
       </c>
       <c r="E310">
-        <v>448434.18829543499</v>
+        <v>399241.17559125298</v>
       </c>
       <c r="F310">
         <v>0</v>
       </c>
       <c r="G310">
-        <v>284436.33183825202</v>
+        <v>284476.71968698601</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -27893,16 +27896,16 @@
         <v>0</v>
       </c>
       <c r="J310">
-        <v>101086.754309157</v>
+        <v>91589.100873326403</v>
       </c>
       <c r="K310">
         <v>0</v>
       </c>
       <c r="L310">
-        <v>9.4601461710344004E-2</v>
+        <v>8.1481131085587799E-2</v>
       </c>
       <c r="M310">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -27913,19 +27916,19 @@
         <v>11.060555555555499</v>
       </c>
       <c r="C311">
-        <v>0.26867008121882302</v>
+        <v>0.27379140967239901</v>
       </c>
       <c r="D311">
-        <v>848255.49436602299</v>
+        <v>788789.73701921699</v>
       </c>
       <c r="E311">
-        <v>452380.56565812801</v>
+        <v>402754.12055291201</v>
       </c>
       <c r="F311">
         <v>0</v>
       </c>
       <c r="G311">
-        <v>293841.23105000198</v>
+        <v>293588.542750925</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -27934,16 +27937,16 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>102033.697657892</v>
+        <v>92447.073715379403</v>
       </c>
       <c r="K311">
         <v>0</v>
       </c>
       <c r="L311">
-        <v>9.4584361640290798E-2</v>
+        <v>8.1461102187128306E-2</v>
       </c>
       <c r="M311">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -27954,19 +27957,19 @@
         <v>11.112</v>
       </c>
       <c r="C312">
-        <v>0.26991970950356098</v>
+        <v>0.27506485808948</v>
       </c>
       <c r="D312">
-        <v>862783.85338357603</v>
+        <v>802429.86247258005</v>
       </c>
       <c r="E312">
-        <v>456343.18955522397</v>
+        <v>406281.523470274</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312">
-        <v>303455.60816741898</v>
+        <v>302839.29257148301</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -27975,16 +27978,16 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>102985.055660932</v>
+        <v>93309.046430821894</v>
       </c>
       <c r="K312">
         <v>0</v>
       </c>
       <c r="L312">
-        <v>9.4567356322416196E-2</v>
+        <v>8.14411840168833E-2</v>
       </c>
       <c r="M312">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -27995,19 +27998,19 @@
         <v>11.1634444444444</v>
       </c>
       <c r="C313">
-        <v>0.27116933778829999</v>
+        <v>0.27633830650655999</v>
       </c>
       <c r="D313">
-        <v>877527.03594575205</v>
+        <v>816207.26967889001</v>
       </c>
       <c r="E313">
-        <v>460322.051770914</v>
+        <v>409823.377017199</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313">
-        <v>313264.15585655702</v>
+        <v>312208.87364203599</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -28016,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <v>103940.828318279</v>
+        <v>94175.019019653802</v>
       </c>
       <c r="K313">
         <v>0</v>
       </c>
       <c r="L313">
-        <v>9.4550444791862004E-2</v>
+        <v>8.1421375448871805E-2</v>
       </c>
       <c r="M313">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -28036,19 +28039,19 @@
         <v>11.214888888888799</v>
       </c>
       <c r="C314">
-        <v>0.272418966073039</v>
+        <v>0.27761175492364099</v>
       </c>
       <c r="D314">
-        <v>892467.90930517903</v>
+        <v>830100.65272231295</v>
       </c>
       <c r="E314">
-        <v>464317.14413349202</v>
+        <v>413379.67390688398</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314">
-        <v>323249.74954175297</v>
+        <v>321675.98733355303</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -28057,16 +28060,16 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>104901.015629933</v>
+        <v>95044.991481875404</v>
       </c>
       <c r="K314">
         <v>0</v>
       </c>
       <c r="L314">
-        <v>9.4533626098013093E-2</v>
+        <v>8.14016753737173E-2</v>
       </c>
       <c r="M314">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -28077,19 +28080,19 @@
         <v>11.2663333333333</v>
       </c>
       <c r="C315">
-        <v>0.27366859435777702</v>
+        <v>0.27888520334072198</v>
       </c>
       <c r="D315">
-        <v>907587.668892288</v>
+        <v>844087.74309840403</v>
       </c>
       <c r="E315">
-        <v>468328.45851490798</v>
+        <v>416950.40689146501</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315">
-        <v>333393.59278148599</v>
+        <v>331218.37238945201</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28098,16 +28101,16 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>105865.617595893</v>
+        <v>95918.963817486394</v>
       </c>
       <c r="K315">
         <v>0</v>
       </c>
       <c r="L315">
-        <v>9.4516899304222704E-2</v>
+        <v>8.1382082698328001E-2</v>
       </c>
       <c r="M315">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -28118,19 +28121,19 @@
         <v>11.3177777777777</v>
       </c>
       <c r="C316">
-        <v>0.27491822264251597</v>
+        <v>0.28015865175780302</v>
       </c>
       <c r="D316">
-        <v>922866.01498344901</v>
+        <v>858145.57220132195</v>
       </c>
       <c r="E316">
-        <v>472355.98683034198</v>
+        <v>420535.56876163802</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316">
-        <v>343675.39393694699</v>
+        <v>340813.06741319702</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28139,16 +28142,16 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>106834.634216159</v>
+        <v>96796.936026487005</v>
       </c>
       <c r="K316">
         <v>0</v>
       </c>
       <c r="L316">
-        <v>9.4500263487543895E-2</v>
+        <v>8.1362596345584001E-2</v>
       </c>
       <c r="M316">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -28159,19 +28162,19 @@
         <v>11.3692222222222</v>
       </c>
       <c r="C317">
-        <v>0.27616785092725499</v>
+        <v>0.28143210017488401</v>
       </c>
       <c r="D317">
-        <v>938281.35862543702</v>
+        <v>872250.75110906397</v>
       </c>
       <c r="E317">
-        <v>476399.72103777202</v>
+        <v>424135.15234627301</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317">
-        <v>354073.57209693303</v>
+        <v>350436.69065391301</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28180,16 +28183,16 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>107808.065490732</v>
+        <v>97678.908108877105</v>
       </c>
       <c r="K317">
         <v>0</v>
       </c>
       <c r="L317">
-        <v>9.4483717738468295E-2</v>
+        <v>8.1343215254032694E-2</v>
       </c>
       <c r="M317">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -28200,19 +28203,19 @@
         <v>11.4206666666666</v>
       </c>
       <c r="C318">
-        <v>0.277417479211994</v>
+        <v>0.28270554859196501</v>
       </c>
       <c r="D318">
-        <v>953811.05396032997</v>
+        <v>886379.762399322</v>
       </c>
       <c r="E318">
-        <v>480459.65313755302</v>
+        <v>427749.15051204001</v>
       </c>
       <c r="F318">
         <v>0</v>
       </c>
       <c r="G318">
-        <v>364565.48940316401</v>
+        <v>360065.73182262498</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -28221,16 +28224,16 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>108785.911419611</v>
+        <v>98564.880064656696</v>
       </c>
       <c r="K318">
         <v>0</v>
       </c>
       <c r="L318">
-        <v>9.4467261160669502E-2</v>
+        <v>8.1323938377590499E-2</v>
       </c>
       <c r="M318">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -28241,19 +28244,19 @@
         <v>11.472111111111101</v>
       </c>
       <c r="C319">
-        <v>0.27866710749673201</v>
+        <v>0.283978997009046</v>
       </c>
       <c r="D319">
-        <v>969431.65332365804</v>
+        <v>900509.25831609301</v>
       </c>
       <c r="E319">
-        <v>484535.77517200803</v>
+        <v>431377.55616303702</v>
       </c>
       <c r="F319">
         <v>0</v>
       </c>
       <c r="G319">
-        <v>375127.70614885201</v>
+        <v>369676.85025922902</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -28262,16 +28265,16 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>109768.172002797</v>
+        <v>99454.851893825893</v>
       </c>
       <c r="K319">
         <v>0</v>
       </c>
       <c r="L319">
-        <v>9.4450892870754102E-2</v>
+        <v>8.1304764685252107E-2</v>
       </c>
       <c r="M319">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -28282,19 +28285,19 @@
         <v>11.5235555555555</v>
       </c>
       <c r="C320">
-        <v>0.27991673578147103</v>
+        <v>0.28525244542612699</v>
       </c>
       <c r="D320">
-        <v>985119.18079963105</v>
+        <v>914616.35937514598</v>
       </c>
       <c r="E320">
-        <v>488628.07922501001</v>
+        <v>435020.36224043003</v>
       </c>
       <c r="F320">
         <v>0</v>
       </c>
       <c r="G320">
-        <v>385736.25433433102</v>
+        <v>379247.173538331</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -28303,16 +28306,16 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>110754.847240289</v>
+        <v>100348.823596384</v>
       </c>
       <c r="K320">
         <v>0</v>
       </c>
       <c r="L320">
-        <v>9.4434611998017601E-2</v>
+        <v>8.1285693160806499E-2</v>
       </c>
       <c r="M320">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -28323,19 +28326,19 @@
         <v>11.574999999999999</v>
       </c>
       <c r="C321">
-        <v>0.28116636406620998</v>
+        <v>0.28652589384320798</v>
       </c>
       <c r="D321">
-        <v>1000849.4193420199</v>
+        <v>928678.94745628699</v>
       </c>
       <c r="E321">
-        <v>492736.55742158502</v>
+        <v>438677.56172208698</v>
       </c>
       <c r="F321">
         <v>0</v>
       </c>
       <c r="G321">
-        <v>396366.924788351</v>
+        <v>388754.590561866</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -28344,16 +28347,16 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <v>111745.937132088</v>
+        <v>101246.795172332</v>
       </c>
       <c r="K321">
         <v>0</v>
       </c>
       <c r="L321">
-        <v>9.4418417684206099E-2</v>
+        <v>8.1266722802559199E-2</v>
       </c>
       <c r="M321">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -28364,19 +28367,19 @@
         <v>11.626444444444401</v>
       </c>
       <c r="C322">
-        <v>0.282415992350949</v>
+        <v>0.28779934226028903</v>
       </c>
       <c r="D322">
-        <v>1016598.20613443</v>
+        <v>942675.94758418098</v>
       </c>
       <c r="E322">
-        <v>496861.201927513</v>
+        <v>442349.14762222703</v>
       </c>
       <c r="F322">
         <v>0</v>
       </c>
       <c r="G322">
-        <v>406995.56252873002</v>
+        <v>398178.03334028198</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -28385,16 +28388,16 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <v>112741.441678193</v>
+        <v>102148.76662167</v>
       </c>
       <c r="K322">
         <v>0</v>
       </c>
       <c r="L322">
-        <v>9.4402309083283703E-2</v>
+        <v>8.1247852623061306E-2</v>
       </c>
       <c r="M322">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -28405,19 +28408,19 @@
         <v>11.6778888888888</v>
       </c>
       <c r="C323">
-        <v>0.28366562063568701</v>
+        <v>0.28907279067737002</v>
       </c>
       <c r="D323">
-        <v>1032341.73058936</v>
+        <v>956587.59293995402</v>
       </c>
       <c r="E323">
-        <v>501002.004948936</v>
+        <v>446035.11299107003</v>
       </c>
       <c r="F323">
         <v>0</v>
       </c>
       <c r="G323">
-        <v>417598.36476182501</v>
+        <v>407497.74200448598</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -28426,16 +28429,16 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <v>113741.360878605</v>
+        <v>103054.737944397</v>
       </c>
       <c r="K323">
         <v>0</v>
       </c>
       <c r="L323">
-        <v>9.4386285361204997E-2</v>
+        <v>8.1229081648844501E-2</v>
       </c>
       <c r="M323">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -28446,19 +28449,19 @@
         <v>11.729333333333299</v>
       </c>
       <c r="C324">
-        <v>0.28491524892042602</v>
+        <v>0.29034623909445101</v>
       </c>
       <c r="D324">
-        <v>1048056.82928491</v>
+        <v>970395.66815681895</v>
       </c>
       <c r="E324">
-        <v>505158.95873196999</v>
+        <v>449735.45091449103</v>
       </c>
       <c r="F324">
         <v>0</v>
       </c>
       <c r="G324">
-        <v>428152.175819617</v>
+        <v>416695.50810181402</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -28467,16 +28470,16 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <v>114745.69473332301</v>
+        <v>103964.70914051399</v>
       </c>
       <c r="K324">
         <v>0</v>
       </c>
       <c r="L324">
-        <v>9.4370345695693206E-2</v>
+        <v>8.1210408920162805E-2</v>
       </c>
       <c r="M324">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -28487,19 +28490,19 @@
         <v>11.780777777777701</v>
       </c>
       <c r="C325">
-        <v>0.28616487720516498</v>
+        <v>0.291619687511532</v>
       </c>
       <c r="D325">
-        <v>1063721.2722154199</v>
+        <v>984083.72661077604</v>
       </c>
       <c r="E325">
-        <v>509332.05556232599</v>
+        <v>453450.15451368102</v>
       </c>
       <c r="F325">
         <v>0</v>
       </c>
       <c r="G325">
-        <v>438634.77341074997</v>
+        <v>425754.89188707399</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -28508,16 +28511,16 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>115754.443242347</v>
+        <v>104878.68021002</v>
       </c>
       <c r="K325">
         <v>0</v>
       </c>
       <c r="L325">
-        <v>9.4354489276022899E-2</v>
+        <v>8.1191833490738899E-2</v>
       </c>
       <c r="M325">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -28528,19 +28531,19 @@
         <v>11.8322222222222</v>
       </c>
       <c r="C326">
-        <v>0.28741450548990299</v>
+        <v>0.29289313592861199</v>
       </c>
       <c r="D326">
-        <v>1079314.0349848</v>
+        <v>997637.27819227905</v>
       </c>
       <c r="E326">
-        <v>513521.28776493401</v>
+        <v>457179.21694481297</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
       <c r="G326">
-        <v>449025.14081419603</v>
+        <v>434661.41009454901</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -28549,16 +28552,16 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <v>116767.606405678</v>
+        <v>105796.65115291601</v>
       </c>
       <c r="K326">
         <v>0</v>
       </c>
       <c r="L326">
-        <v>9.4338715302808199E-2</v>
+        <v>8.1173354427517497E-2</v>
       </c>
       <c r="M326">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -28569,19 +28572,19 @@
         <v>11.883666666666601</v>
       </c>
       <c r="C327">
-        <v>0.28866413377464201</v>
+        <v>0.29416658434569298</v>
       </c>
       <c r="D327">
-        <v>1094815.55198636</v>
+        <v>1011043.94490245</v>
       </c>
       <c r="E327">
-        <v>517726.64770357101</v>
+        <v>460922.63139870903</v>
       </c>
       <c r="F327">
         <v>0</v>
       </c>
       <c r="G327">
-        <v>459303.72005948197</v>
+        <v>443402.69153454201</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -28590,16 +28593,16 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>117785.18422331499</v>
+        <v>106718.62196920101</v>
       </c>
       <c r="K327">
         <v>0</v>
       </c>
       <c r="L327">
-        <v>9.4323022987795005E-2</v>
+        <v>8.1154970810423804E-2</v>
       </c>
       <c r="M327">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -28610,19 +28613,19 @@
         <v>11.9351111111111</v>
       </c>
       <c r="C328">
-        <v>0.28991376205938102</v>
+        <v>0.29544003276277397</v>
       </c>
       <c r="D328">
-        <v>1110207.94617288</v>
+        <v>1024293.58252192</v>
       </c>
       <c r="E328">
-        <v>521948.12778049603</v>
+        <v>464680.39110051497</v>
       </c>
       <c r="F328">
         <v>0</v>
       </c>
       <c r="G328">
-        <v>469452.64169713098</v>
+        <v>451968.598762532</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -28631,16 +28634,16 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>118807.176695259</v>
+        <v>107644.592658876</v>
       </c>
       <c r="K328">
         <v>0</v>
       </c>
       <c r="L328">
-        <v>9.4307411553658599E-2</v>
+        <v>8.1136681732127097E-2</v>
       </c>
       <c r="M328">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -28651,19 +28654,19 @@
         <v>11.986555555555499</v>
       </c>
       <c r="C329">
-        <v>0.29116339034411898</v>
+        <v>0.29671348117985502</v>
       </c>
       <c r="D329">
-        <v>1125475.2316998099</v>
+        <v>1037378.36751515</v>
       </c>
       <c r="E329">
-        <v>526185.720436092</v>
+        <v>468452.48930937902</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329">
-        <v>479455.92744221498</v>
+        <v>460351.31498383603</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -28672,16 +28675,16 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>119833.58382150999</v>
+        <v>108574.563221941</v>
       </c>
       <c r="K329">
         <v>0</v>
       </c>
       <c r="L329">
-        <v>9.4291880233805705E-2</v>
+        <v>8.1118486297810405E-2</v>
       </c>
       <c r="M329">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -28692,19 +28695,19 @@
         <v>12.038</v>
       </c>
       <c r="C330">
-        <v>0.29241301862885799</v>
+        <v>0.29798692959693601</v>
       </c>
       <c r="D330">
-        <v>1140603.4864942001</v>
+        <v>1050292.8492238</v>
       </c>
       <c r="E330">
-        <v>530439.41814850504</v>
+        <v>472238.919318136</v>
       </c>
       <c r="F330">
         <v>0</v>
       </c>
       <c r="G330">
-        <v>489299.66274363501</v>
+        <v>468545.396247269</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -28713,16 +28716,16 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>120864.40560206601</v>
+        <v>109508.533658395</v>
       </c>
       <c r="K330">
         <v>0</v>
       </c>
       <c r="L330">
-        <v>9.4276428272180607E-2</v>
+        <v>8.1100383624944497E-2</v>
       </c>
       <c r="M330">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -28733,19 +28736,19 @@
         <v>12.0894444444444</v>
       </c>
       <c r="C331">
-        <v>0.293662646913597</v>
+        <v>0.299260378014017</v>
       </c>
       <c r="D331">
-        <v>1155580.9926302801</v>
+        <v>1063033.9682378799</v>
       </c>
       <c r="E331">
-        <v>534709.21343330003</v>
+        <v>476039.67445299099</v>
       </c>
       <c r="F331">
         <v>0</v>
       </c>
       <c r="G331">
-        <v>498972.13716005301</v>
+        <v>476547.78981665598</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -28754,16 +28757,16 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <v>121899.64203693</v>
+        <v>110446.503968238</v>
       </c>
       <c r="K331">
         <v>0</v>
       </c>
       <c r="L331">
-        <v>9.4261054923075599E-2</v>
+        <v>8.1082372843067102E-2</v>
       </c>
       <c r="M331">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -28774,19 +28777,19 @@
         <v>12.140888888888799</v>
       </c>
       <c r="C332">
-        <v>0.29491227519833602</v>
+        <v>0.30053382643109799</v>
       </c>
       <c r="D332">
-        <v>1170398.3432467901</v>
+        <v>1075601.0425871599</v>
       </c>
       <c r="E332">
-        <v>538995.09884311003</v>
+        <v>479854.74807321402</v>
       </c>
       <c r="F332">
         <v>0</v>
       </c>
       <c r="G332">
-        <v>508463.95127758599</v>
+        <v>484357.82036248001</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -28795,16 +28798,16 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>122939.293126099</v>
+        <v>111388.474151471</v>
       </c>
       <c r="K332">
         <v>0</v>
       </c>
       <c r="L332">
-        <v>9.4245759450946501E-2</v>
+        <v>8.1064453093567704E-2</v>
       </c>
       <c r="M332">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -28815,19 +28818,19 @@
         <v>12.1923333333333</v>
       </c>
       <c r="C333">
-        <v>0.29616190348307397</v>
+        <v>0.30180727484817899</v>
       </c>
       <c r="D333">
-        <v>1185048.5155891001</v>
+        <v>1087995.72404595</v>
       </c>
       <c r="E333">
-        <v>543297.06696729595</v>
+        <v>483684.13357083499</v>
       </c>
       <c r="F333">
         <v>0</v>
       </c>
       <c r="G333">
-        <v>517768.08975223399</v>
+        <v>491977.14626702399</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -28836,16 +28839,16 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <v>123983.35886957499</v>
+        <v>112334.44420809401</v>
       </c>
       <c r="K333">
         <v>0</v>
       </c>
       <c r="L333">
-        <v>9.4230541130230702E-2</v>
+        <v>8.1046623529476003E-2</v>
       </c>
       <c r="M333">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -28856,19 +28859,19 @@
         <v>12.2437777777777</v>
       </c>
       <c r="C334">
-        <v>0.29741153176781299</v>
+        <v>0.30308072326525998</v>
       </c>
       <c r="D334">
-        <v>1199526.9105710599</v>
+        <v>1100221.92737864</v>
       </c>
       <c r="E334">
-        <v>547615.110431612</v>
+        <v>487527.82437034202</v>
       </c>
       <c r="F334">
         <v>0</v>
       </c>
       <c r="G334">
-        <v>526879.96087209205</v>
+        <v>499409.68887019099</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -28877,16 +28880,16 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>125031.83926735799</v>
+        <v>113284.414138106</v>
       </c>
       <c r="K334">
         <v>0</v>
       </c>
       <c r="L334">
-        <v>9.4215399245170806E-2</v>
+        <v>8.1028883315255998E-2</v>
       </c>
       <c r="M334">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -28897,19 +28900,19 @@
         <v>12.295222222222201</v>
       </c>
       <c r="C335">
-        <v>0.298661160052552</v>
+        <v>0.30435417168234102</v>
       </c>
       <c r="D335">
-        <v>1213831.36000167</v>
+        <v>1112285.7357614699</v>
       </c>
       <c r="E335">
-        <v>551949.22189786797</v>
+        <v>491385.81392838497</v>
       </c>
       <c r="F335">
         <v>0</v>
       </c>
       <c r="G335">
-        <v>535797.40378436004</v>
+        <v>506661.53789158398</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -28918,16 +28921,16 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>126084.734319447</v>
+        <v>114238.383941507</v>
       </c>
       <c r="K335">
         <v>0</v>
       </c>
       <c r="L335">
-        <v>9.4200333089640903E-2</v>
+        <v>8.1011231626603702E-2</v>
       </c>
       <c r="M335">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -28938,19 +28941,19 @@
         <v>12.3466666666666</v>
       </c>
       <c r="C336">
-        <v>0.29991078833729001</v>
+        <v>0.30562762009942201</v>
       </c>
       <c r="D336">
-        <v>1227962.1032881399</v>
+        <v>1124195.2858967099</v>
       </c>
       <c r="E336">
-        <v>556299.39406361</v>
+        <v>495258.09573348402</v>
       </c>
       <c r="F336">
         <v>0</v>
       </c>
       <c r="G336">
-        <v>544520.66519868595</v>
+        <v>513740.83654492698</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -28959,16 +28962,16 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>127142.044025842</v>
+        <v>115196.353618298</v>
       </c>
       <c r="K336">
         <v>0</v>
       </c>
       <c r="L336">
-        <v>9.4185341966977199E-2</v>
+        <v>8.0993667650249998E-2</v>
       </c>
       <c r="M336">
-        <v>0.17339809714955501</v>
+        <v>0.171284583424922</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -29043,7 +29046,7 @@
         <v>106</v>
       </c>
       <c r="B348">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -29051,12 +29054,12 @@
         <v>107</v>
       </c>
       <c r="B349">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Ik ben snelheid/Ik ben snelheid.xlsx
+++ b/Ik ben snelheid/Ik ben snelheid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Ik ben snelheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC77BCC-ED3F-4CDE-BEA6-D2B52868B356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89376-3543-4105-8F40-93A912EFE95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>1946.954</v>
+        <v>2711.598</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>153.44399999999999</v>
+        <v>153.63399999999999</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>5.0949999999999998</v>
+        <v>6.3479999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>340.17200000000003</v>
+        <v>383.48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>153.94900000000001</v>
+        <v>154.27600000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>8.4589999999999996</v>
+        <v>10.574</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>4023.0569999999998</v>
+        <v>5479.5309999999999</v>
       </c>
       <c r="C40">
-        <v>27675.424999999999</v>
+        <v>32222.827000000001</v>
       </c>
       <c r="D40">
-        <v>31698.482</v>
+        <v>37702.358</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,36 +1486,36 @@
         <v>140.63300000000001</v>
       </c>
       <c r="B94">
-        <v>95.024000000000001</v>
+        <v>130.053</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>149.75899999999999</v>
+        <v>149.90100000000001</v>
       </c>
       <c r="B95">
-        <v>77.644999999999996</v>
+        <v>106.617</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>158.88499999999999</v>
+        <v>159.16900000000001</v>
       </c>
       <c r="B96">
-        <v>56.784999999999997</v>
+        <v>78.046999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>168.011</v>
+        <v>168.43600000000001</v>
       </c>
       <c r="B97">
-        <v>30.843</v>
+        <v>42.207999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>177.137</v>
+        <v>177.70400000000001</v>
       </c>
       <c r="B98">
         <v>0</v>

--- a/Ik ben snelheid/Ik ben snelheid.xlsx
+++ b/Ik ben snelheid/Ik ben snelheid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Ik ben snelheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89376-3543-4105-8F40-93A912EFE95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D6BC9-0623-4BEF-B2E7-52584DFDDE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>2711.598</v>
+        <v>3157.9589999999998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>153.63399999999999</v>
+        <v>153.73699999999999</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>6.3479999999999999</v>
+        <v>7.0250000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>383.48</v>
+        <v>408.24400000000003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>154.27600000000001</v>
+        <v>154.44900000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>10.574</v>
+        <v>11.702</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>5479.5309999999999</v>
+        <v>6441.1080000000002</v>
       </c>
       <c r="C40">
-        <v>32222.827000000001</v>
+        <v>34855.017</v>
       </c>
       <c r="D40">
-        <v>37702.358</v>
+        <v>41296.125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,36 +1486,36 @@
         <v>140.63300000000001</v>
       </c>
       <c r="B94">
-        <v>130.053</v>
+        <v>149.874</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>149.90100000000001</v>
+        <v>149.976</v>
       </c>
       <c r="B95">
-        <v>106.617</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>159.16900000000001</v>
+        <v>159.31800000000001</v>
       </c>
       <c r="B96">
-        <v>78.046999999999997</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>168.43600000000001</v>
+        <v>168.66</v>
       </c>
       <c r="B97">
-        <v>42.207999999999998</v>
+        <v>48.744999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>177.70400000000001</v>
+        <v>178.00200000000001</v>
       </c>
       <c r="B98">
         <v>0</v>
